--- a/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.999563562022222</v>
+      </c>
+      <c r="D3">
+        <v>1.000359118065113</v>
+      </c>
+      <c r="E3">
         <v>0.9998377576235938</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9998368180394401</v>
+      </c>
+      <c r="G3">
         <v>1.000652386336827</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.9998364315635606</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.9998377576235938</v>
-      </c>
-      <c r="G3">
-        <v>0.9995635620222219</v>
-      </c>
-      <c r="H3">
-        <v>1.000359118065113</v>
-      </c>
-      <c r="I3">
-        <v>0.9998368180394401</v>
       </c>
       <c r="J3">
         <v>1.000652386336827</v>
@@ -728,7 +680,7 @@
         <v>1.000014345608459</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9991572253540326</v>
+      </c>
+      <c r="D4">
+        <v>1.000693266117362</v>
+      </c>
+      <c r="E4">
         <v>0.9996870061908255</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9996849935006176</v>
+      </c>
+      <c r="G4">
         <v>1.001259290310473</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>0.9996841637442594</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9996870061908255</v>
-      </c>
-      <c r="G4">
-        <v>0.9991572253540326</v>
-      </c>
-      <c r="H4">
-        <v>1.000693266117362</v>
-      </c>
-      <c r="I4">
-        <v>0.9996849935006176</v>
       </c>
       <c r="J4">
         <v>1.001259290310473</v>
@@ -790,7 +742,7 @@
         <v>1.000027657536261</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9983856444317494</v>
+      </c>
+      <c r="D5">
+        <v>1.001328584562606</v>
+      </c>
+      <c r="E5">
         <v>0.9993995255154523</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9993962805780844</v>
+      </c>
+      <c r="G5">
         <v>1.002413678930295</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.9993949433916098</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.9993995255154523</v>
-      </c>
-      <c r="G5">
-        <v>0.9983856444317494</v>
-      </c>
-      <c r="H5">
-        <v>1.001328584562606</v>
-      </c>
-      <c r="I5">
-        <v>0.9993962805780846</v>
       </c>
       <c r="J5">
         <v>1.002413678930295</v>
@@ -852,7 +804,7 @@
         <v>1.000053109568299</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9976325414831287</v>
+      </c>
+      <c r="D6">
+        <v>1.001948618995555</v>
+      </c>
+      <c r="E6">
         <v>0.9991190332001251</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9991145246853895</v>
+      </c>
+      <c r="G6">
         <v>1.003540256824746</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.9991126602320963</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>0.9991190332001251</v>
-      </c>
-      <c r="G6">
-        <v>0.9976325414831286</v>
-      </c>
-      <c r="H6">
-        <v>1.001948618995555</v>
-      </c>
-      <c r="I6">
-        <v>0.9991145246853895</v>
       </c>
       <c r="J6">
         <v>1.003540256824746</v>
@@ -914,7 +866,7 @@
         <v>1.00007793923684</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999749007722888</v>
+      </c>
+      <c r="D7">
+        <v>1.000020660747454</v>
+      </c>
+      <c r="E7">
         <v>0.9999906583001333</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>0.9999906120094975</v>
+      </c>
+      <c r="G7">
         <v>1.000037540387907</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0.9999905934030382</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.9999906583001333</v>
-      </c>
-      <c r="G7">
-        <v>0.9999749007722888</v>
-      </c>
-      <c r="H7">
-        <v>1.000020660747454</v>
-      </c>
-      <c r="I7">
-        <v>0.9999906120094975</v>
       </c>
       <c r="J7">
         <v>1.000037540387907</v>
@@ -976,7 +928,7 @@
         <v>1.000000827603386</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,25 +936,25 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999561914675327</v>
+      </c>
+      <c r="D8">
+        <v>1.000035789715006</v>
+      </c>
+      <c r="E8">
         <v>0.9999841035433287</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>0.999983752197757</v>
+      </c>
+      <c r="G8">
         <v>1.00006486637573</v>
       </c>
-      <c r="E8">
-        <v>0.9999836080711141</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>0.9999836080711139</v>
+      </c>
+      <c r="I8">
         <v>0.9999841035433287</v>
-      </c>
-      <c r="G8">
-        <v>0.9999561914675325</v>
-      </c>
-      <c r="H8">
-        <v>1.000035789715006</v>
-      </c>
-      <c r="I8">
-        <v>0.9999837521977568</v>
       </c>
       <c r="J8">
         <v>1.00006486637573</v>
@@ -1011,7 +963,7 @@
         <v>0.9999841035433287</v>
       </c>
       <c r="L8">
-        <v>0.9999836080711141</v>
+        <v>0.9999836080711139</v>
       </c>
       <c r="M8">
         <v>1.000024237223422</v>
@@ -1029,16 +981,16 @@
         <v>1.000010859330058</v>
       </c>
       <c r="R8">
-        <v>1.000004170383376</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="S8">
-        <v>1.000004170383376</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="T8">
         <v>1.000001385228411</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999432552498964</v>
+      </c>
+      <c r="D9">
+        <v>1.000045841980631</v>
+      </c>
+      <c r="E9">
         <v>0.9999801862454137</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.9999792176589232</v>
+      </c>
+      <c r="G9">
         <v>1.000082776187046</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>0.9999788194933946</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.9999801862454137</v>
-      </c>
-      <c r="G9">
-        <v>0.9999432552498964</v>
-      </c>
-      <c r="H9">
-        <v>1.000045841980631</v>
-      </c>
-      <c r="I9">
-        <v>0.9999792176589231</v>
       </c>
       <c r="J9">
         <v>1.000082776187046</v>
@@ -1100,7 +1052,7 @@
         <v>1.000001682802551</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.999872131745729</v>
+      </c>
+      <c r="D10">
+        <v>1.000103970017084</v>
+      </c>
+      <c r="E10">
         <v>0.9999543408891702</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9999528253342344</v>
+      </c>
+      <c r="G10">
         <v>1.000188140411769</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>0.9999522030446029</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.9999543408891702</v>
-      </c>
-      <c r="G10">
-        <v>0.999872131745729</v>
-      </c>
-      <c r="H10">
-        <v>1.000103970017083</v>
-      </c>
-      <c r="I10">
-        <v>0.9999528253342344</v>
       </c>
       <c r="J10">
         <v>1.000188140411769</v>
@@ -1162,7 +1114,7 @@
         <v>1.000003935240432</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,31 +1122,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999350865478507</v>
+        <v>0.9998102698548772</v>
       </c>
       <c r="D11">
+        <v>1.00015238508475</v>
+      </c>
+      <c r="E11">
+        <v>0.9999350865478505</v>
+      </c>
+      <c r="F11">
+        <v>0.9999309641166493</v>
+      </c>
+      <c r="G11">
         <v>1.00027462143927</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>0.9999292682046509</v>
       </c>
-      <c r="F11">
-        <v>0.9999350865478507</v>
-      </c>
-      <c r="G11">
-        <v>0.9998102698548772</v>
-      </c>
-      <c r="H11">
-        <v>1.00015238508475</v>
-      </c>
       <c r="I11">
-        <v>0.9999309641166493</v>
+        <v>0.9999350865478505</v>
       </c>
       <c r="J11">
         <v>1.00027462143927</v>
       </c>
       <c r="K11">
-        <v>0.9999350865478507</v>
+        <v>0.9999350865478505</v>
       </c>
       <c r="L11">
         <v>0.9999292682046509</v>
@@ -1215,16 +1167,16 @@
         <v>1.000046325397257</v>
       </c>
       <c r="R11">
-        <v>1.000018515684906</v>
+        <v>1.000018515684905</v>
       </c>
       <c r="S11">
-        <v>1.000018515684906</v>
+        <v>1.000018515684905</v>
       </c>
       <c r="T11">
         <v>1.000005432541341</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9982055897701504</v>
+      </c>
+      <c r="D12">
+        <v>1.001426698866869</v>
+      </c>
+      <c r="E12">
         <v>0.9994079411692615</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9993544825523902</v>
+      </c>
+      <c r="G12">
         <v>1.002562255068849</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.9993324848991358</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>0.9994079411692615</v>
-      </c>
-      <c r="G12">
-        <v>0.9982055897701504</v>
-      </c>
-      <c r="H12">
-        <v>1.001426698866869</v>
-      </c>
-      <c r="I12">
-        <v>0.9993544825523902</v>
       </c>
       <c r="J12">
         <v>1.002562255068849</v>
@@ -1286,7 +1238,7 @@
         <v>1.000048242054443</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9995672249145106</v>
+      </c>
+      <c r="D13">
+        <v>1.000379627028692</v>
+      </c>
+      <c r="E13">
         <v>0.9998036936522696</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9998261842488306</v>
+      </c>
+      <c r="G13">
         <v>1.000703587174933</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.999835442414725</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.9998036936522696</v>
-      </c>
-      <c r="G13">
-        <v>0.9995672249145106</v>
-      </c>
-      <c r="H13">
-        <v>1.000379627028692</v>
-      </c>
-      <c r="I13">
-        <v>0.9998261842488304</v>
       </c>
       <c r="J13">
         <v>1.000703587174933</v>
@@ -1345,10 +1297,10 @@
         <v>1.000036604223549</v>
       </c>
       <c r="T13">
-        <v>1.000019293238993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000019293238994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9896502829154836</v>
+      </c>
+      <c r="D14">
+        <v>1.008898876915657</v>
+      </c>
+      <c r="E14">
         <v>0.9955761297980881</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9959349935923743</v>
+      </c>
+      <c r="G14">
         <v>1.016392937007566</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.9960826735632273</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.9955761297980881</v>
-      </c>
-      <c r="G14">
-        <v>0.9896502829154837</v>
-      </c>
-      <c r="H14">
-        <v>1.008898876915657</v>
-      </c>
-      <c r="I14">
-        <v>0.9959349935923743</v>
       </c>
       <c r="J14">
         <v>1.016392937007566</v>
@@ -1410,7 +1362,7 @@
         <v>1.000422648965399</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9968784428149133</v>
+      </c>
+      <c r="D15">
+        <v>1.002427378172071</v>
+      </c>
+      <c r="E15">
         <v>0.9990521781334182</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9989048862401907</v>
+      </c>
+      <c r="G15">
         <v>1.00432592511089</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9988442654986501</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.9990521781334182</v>
-      </c>
-      <c r="G15">
-        <v>0.9968784428149133</v>
-      </c>
-      <c r="H15">
-        <v>1.002427378172071</v>
-      </c>
-      <c r="I15">
-        <v>0.9989048862401907</v>
       </c>
       <c r="J15">
         <v>1.00432592511089</v>
@@ -1472,7 +1424,7 @@
         <v>1.000072179328356</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999980120544331</v>
+        <v>0.9914949215434024</v>
       </c>
       <c r="D16">
-        <v>1.000003507066983</v>
+        <v>1.007001490445431</v>
       </c>
       <c r="E16">
-        <v>0.9999997430837519</v>
+        <v>0.9968334892827655</v>
       </c>
       <c r="F16">
-        <v>0.9999980120544331</v>
+        <v>0.9968183557812798</v>
       </c>
       <c r="G16">
-        <v>0.999999642087146</v>
+        <v>1.01272099135825</v>
       </c>
       <c r="H16">
-        <v>1.000001526876128</v>
+        <v>0.9968121218380639</v>
       </c>
       <c r="I16">
-        <v>0.9999992381471445</v>
+        <v>0.9968334892827655</v>
       </c>
       <c r="J16">
-        <v>1.000003507066983</v>
+        <v>1.01272099135825</v>
       </c>
       <c r="K16">
-        <v>0.9999980120544331</v>
+        <v>0.9968334892827655</v>
       </c>
       <c r="L16">
-        <v>0.9999997430837519</v>
+        <v>0.9968121218380639</v>
       </c>
       <c r="M16">
-        <v>1.000001625075368</v>
+        <v>1.004766556598157</v>
       </c>
       <c r="N16">
-        <v>1.000001625075368</v>
+        <v>1.004766556598157</v>
       </c>
       <c r="O16">
-        <v>1.000001592342288</v>
+        <v>1.005511534547248</v>
       </c>
       <c r="P16">
-        <v>1.000000420735056</v>
+        <v>1.00212220082636</v>
       </c>
       <c r="Q16">
-        <v>1.000000420735056</v>
+        <v>1.00212220082636</v>
       </c>
       <c r="R16">
-        <v>0.9999998185649003</v>
+        <v>1.000800022940461</v>
       </c>
       <c r="S16">
-        <v>0.9999998185649003</v>
+        <v>1.000800022940461</v>
       </c>
       <c r="T16">
-        <v>1.000000278219265</v>
+        <v>1.000280228374865</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999875669404142</v>
+        <v>0.993058030690656</v>
       </c>
       <c r="D17">
-        <v>1.000055974196975</v>
+        <v>1.005719080207106</v>
       </c>
       <c r="E17">
-        <v>0.9999851420782735</v>
+        <v>0.9974088785223879</v>
       </c>
       <c r="F17">
-        <v>0.9999875669404142</v>
+        <v>0.9974008693571582</v>
       </c>
       <c r="G17">
-        <v>0.9999599147259968</v>
+        <v>1.010393570635947</v>
       </c>
       <c r="H17">
-        <v>1.000031345648932</v>
+        <v>0.9973975694744341</v>
       </c>
       <c r="I17">
-        <v>0.9999858489540983</v>
+        <v>0.9974088785223879</v>
       </c>
       <c r="J17">
-        <v>1.000055974196975</v>
+        <v>1.010393570635947</v>
       </c>
       <c r="K17">
-        <v>0.9999875669404142</v>
+        <v>0.9974088785223879</v>
       </c>
       <c r="L17">
-        <v>0.9999851420782735</v>
+        <v>0.9973975694744341</v>
       </c>
       <c r="M17">
-        <v>1.000020558137624</v>
+        <v>1.003895570055191</v>
       </c>
       <c r="N17">
-        <v>1.000020558137624</v>
+        <v>1.003895570055191</v>
       </c>
       <c r="O17">
-        <v>1.000024153974727</v>
+        <v>1.004503406772496</v>
       </c>
       <c r="P17">
-        <v>1.000009561071888</v>
+        <v>1.001733339544256</v>
       </c>
       <c r="Q17">
-        <v>1.000009561071888</v>
+        <v>1.001733339544256</v>
       </c>
       <c r="R17">
-        <v>1.000004062539019</v>
+        <v>1.000652224288789</v>
       </c>
       <c r="S17">
-        <v>1.000004062539019</v>
+        <v>1.000652224288789</v>
       </c>
       <c r="T17">
-        <v>1.000000965424115</v>
+        <v>1.000229666481282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999462815488653</v>
+        <v>0.9962239132922237</v>
       </c>
       <c r="D18">
-        <v>1.000203183820439</v>
+        <v>1.003120895629267</v>
       </c>
       <c r="E18">
-        <v>0.9999508280138528</v>
+        <v>0.9985754982560598</v>
       </c>
       <c r="F18">
-        <v>0.9999462815488653</v>
+        <v>0.9985810992918772</v>
       </c>
       <c r="G18">
-        <v>0.9998697462216243</v>
+        <v>1.005677685355994</v>
       </c>
       <c r="H18">
-        <v>1.000110696069929</v>
+        <v>0.9985834024100173</v>
       </c>
       <c r="I18">
-        <v>0.9999495054421272</v>
+        <v>0.9985754982560598</v>
       </c>
       <c r="J18">
-        <v>1.000203183820439</v>
+        <v>1.005677685355994</v>
       </c>
       <c r="K18">
-        <v>0.9999462815488653</v>
+        <v>0.9985754982560598</v>
       </c>
       <c r="L18">
-        <v>0.9999508280138528</v>
+        <v>0.9985834024100173</v>
       </c>
       <c r="M18">
-        <v>1.000077005917146</v>
+        <v>1.002130543883006</v>
       </c>
       <c r="N18">
-        <v>1.000077005917146</v>
+        <v>1.002130543883006</v>
       </c>
       <c r="O18">
-        <v>1.000088235968074</v>
+        <v>1.002460661131759</v>
       </c>
       <c r="P18">
-        <v>1.000033431127719</v>
+        <v>1.000945528674024</v>
       </c>
       <c r="Q18">
-        <v>1.000033431127719</v>
+        <v>1.000945528674024</v>
       </c>
       <c r="R18">
-        <v>1.000011643733006</v>
+        <v>1.000353021069533</v>
       </c>
       <c r="S18">
-        <v>1.000011643733006</v>
+        <v>1.000353021069533</v>
       </c>
       <c r="T18">
-        <v>1.00000504018614</v>
+        <v>1.000127082372573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998683310941361</v>
+        <v>0.995973951997324</v>
       </c>
       <c r="D19">
+        <v>1.003332894085547</v>
+      </c>
+      <c r="E19">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="F19">
+        <v>0.9984844118287821</v>
+      </c>
+      <c r="G19">
+        <v>1.006066559994675</v>
+      </c>
+      <c r="H19">
+        <v>0.9984890864013287</v>
+      </c>
+      <c r="I19">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="J19">
+        <v>1.006066559994675</v>
+      </c>
+      <c r="K19">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="L19">
+        <v>0.9984890864013287</v>
+      </c>
+      <c r="M19">
+        <v>1.002277823198002</v>
+      </c>
+      <c r="N19">
+        <v>1.002277823198002</v>
+      </c>
+      <c r="O19">
+        <v>1.00262951349385</v>
+      </c>
+      <c r="P19">
+        <v>1.001009567305446</v>
+      </c>
+      <c r="Q19">
+        <v>1.001009567305446</v>
+      </c>
+      <c r="R19">
+        <v>1.000375439359168</v>
+      </c>
+      <c r="S19">
+        <v>1.000375439359168</v>
+      </c>
+      <c r="T19">
+        <v>1.000136659971332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.999999642087146</v>
+      </c>
+      <c r="D20">
+        <v>1.000001526876128</v>
+      </c>
+      <c r="E20">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="F20">
+        <v>0.9999992381471445</v>
+      </c>
+      <c r="G20">
+        <v>1.000003507066983</v>
+      </c>
+      <c r="H20">
+        <v>0.9999997430837519</v>
+      </c>
+      <c r="I20">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="J20">
+        <v>1.000003507066983</v>
+      </c>
+      <c r="K20">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="L20">
+        <v>0.9999997430837519</v>
+      </c>
+      <c r="M20">
+        <v>1.000001625075368</v>
+      </c>
+      <c r="N20">
+        <v>1.000001625075368</v>
+      </c>
+      <c r="O20">
+        <v>1.000001592342288</v>
+      </c>
+      <c r="P20">
+        <v>1.000000420735056</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000420735056</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998185649003</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998185649003</v>
+      </c>
+      <c r="T20">
+        <v>1.000000278219265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999599147259965</v>
+      </c>
+      <c r="D21">
+        <v>1.000031345648932</v>
+      </c>
+      <c r="E21">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="F21">
+        <v>0.9999858489540983</v>
+      </c>
+      <c r="G21">
+        <v>1.000055974196975</v>
+      </c>
+      <c r="H21">
+        <v>0.9999851420782735</v>
+      </c>
+      <c r="I21">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="J21">
+        <v>1.000055974196975</v>
+      </c>
+      <c r="K21">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="L21">
+        <v>0.9999851420782735</v>
+      </c>
+      <c r="M21">
+        <v>1.000020558137624</v>
+      </c>
+      <c r="N21">
+        <v>1.000020558137624</v>
+      </c>
+      <c r="O21">
+        <v>1.000024153974727</v>
+      </c>
+      <c r="P21">
+        <v>1.000009561071888</v>
+      </c>
+      <c r="Q21">
+        <v>1.000009561071888</v>
+      </c>
+      <c r="R21">
+        <v>1.000004062539019</v>
+      </c>
+      <c r="S21">
+        <v>1.000004062539019</v>
+      </c>
+      <c r="T21">
+        <v>1.000000965424115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9998697462216242</v>
+      </c>
+      <c r="D22">
+        <v>1.000110696069929</v>
+      </c>
+      <c r="E22">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="F22">
+        <v>0.9999495054421271</v>
+      </c>
+      <c r="G22">
+        <v>1.000203183820438</v>
+      </c>
+      <c r="H22">
+        <v>0.999950828013853</v>
+      </c>
+      <c r="I22">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="J22">
+        <v>1.000203183820438</v>
+      </c>
+      <c r="K22">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="L22">
+        <v>0.999950828013853</v>
+      </c>
+      <c r="M22">
+        <v>1.000077005917146</v>
+      </c>
+      <c r="N22">
+        <v>1.000077005917146</v>
+      </c>
+      <c r="O22">
+        <v>1.000088235968074</v>
+      </c>
+      <c r="P22">
+        <v>1.000033431127719</v>
+      </c>
+      <c r="Q22">
+        <v>1.000033431127719</v>
+      </c>
+      <c r="R22">
+        <v>1.000011643733006</v>
+      </c>
+      <c r="S22">
+        <v>1.000011643733006</v>
+      </c>
+      <c r="T22">
+        <v>1.00000504018614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997012196973705</v>
+      </c>
+      <c r="D23">
+        <v>1.000259525235631</v>
+      </c>
+      <c r="E23">
+        <v>0.9998683310941364</v>
+      </c>
+      <c r="F23">
+        <v>0.999881308274888</v>
+      </c>
+      <c r="G23">
         <v>1.000479579573885</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.9998866459810432</v>
       </c>
-      <c r="F19">
-        <v>0.9998683310941361</v>
-      </c>
-      <c r="G19">
-        <v>0.9997012196973705</v>
-      </c>
-      <c r="H19">
-        <v>1.000259525235631</v>
-      </c>
-      <c r="I19">
-        <v>0.999881308274888</v>
-      </c>
-      <c r="J19">
+      <c r="I23">
+        <v>0.9998683310941364</v>
+      </c>
+      <c r="J23">
         <v>1.000479579573885</v>
       </c>
-      <c r="K19">
-        <v>0.9998683310941361</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.9998683310941364</v>
+      </c>
+      <c r="L23">
         <v>0.9998866459810432</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000183112777464</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000183112777464</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000208583596853</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000078185549688</v>
       </c>
-      <c r="Q19">
-        <v>1.000078185549688</v>
-      </c>
-      <c r="R19">
+      <c r="Q23">
+        <v>1.000078185549689</v>
+      </c>
+      <c r="R23">
         <v>1.0000257219358</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.0000257219358</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000012768309492</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999563562022222</v>
+        <v>0.9958665703314138</v>
       </c>
       <c r="D3">
-        <v>1.000359118065113</v>
+        <v>1.003415044711815</v>
       </c>
       <c r="E3">
-        <v>0.9998377576235938</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="F3">
-        <v>0.9998368180394401</v>
+        <v>0.9984474304178642</v>
       </c>
       <c r="G3">
-        <v>1.000652386336827</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="H3">
-        <v>0.9998364315635606</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="I3">
-        <v>0.9998377576235938</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="J3">
-        <v>1.000652386336827</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="K3">
-        <v>0.9998377576235938</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="L3">
-        <v>0.9998364315635606</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="M3">
-        <v>1.000244408950194</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="N3">
-        <v>1.000244408950194</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="O3">
-        <v>1.000282645321833</v>
+        <v>1.002692209058598</v>
       </c>
       <c r="P3">
-        <v>1.000108858507994</v>
+        <v>1.001034689017772</v>
       </c>
       <c r="Q3">
-        <v>1.000108858507994</v>
+        <v>1.001034689017771</v>
       </c>
       <c r="R3">
-        <v>1.000041083286894</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="S3">
-        <v>1.000041083286894</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="T3">
-        <v>1.000014345608459</v>
+        <v>1.000138852085735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9991572253540326</v>
+        <v>0.996050275879615</v>
       </c>
       <c r="D4">
-        <v>1.000693266117362</v>
+        <v>1.003264546632497</v>
       </c>
       <c r="E4">
-        <v>0.9996870061908255</v>
+        <v>0.9985097796114405</v>
       </c>
       <c r="F4">
-        <v>0.9996849935006176</v>
+        <v>0.9985157796105126</v>
       </c>
       <c r="G4">
-        <v>1.001259290310473</v>
+        <v>1.0059391092322</v>
       </c>
       <c r="H4">
-        <v>0.9996841637442594</v>
+        <v>0.9985182489675708</v>
       </c>
       <c r="I4">
-        <v>0.9996870061908255</v>
+        <v>0.9985097796114405</v>
       </c>
       <c r="J4">
-        <v>1.001259290310473</v>
+        <v>1.0059391092322</v>
       </c>
       <c r="K4">
-        <v>0.9996870061908255</v>
+        <v>0.9985097796114405</v>
       </c>
       <c r="L4">
-        <v>0.9996841637442594</v>
+        <v>0.9985182489675708</v>
       </c>
       <c r="M4">
-        <v>1.000471727027366</v>
+        <v>1.002228679099885</v>
       </c>
       <c r="N4">
-        <v>1.000471727027366</v>
+        <v>1.002228679099885</v>
       </c>
       <c r="O4">
-        <v>1.000545573390698</v>
+        <v>1.002573968277422</v>
       </c>
       <c r="P4">
-        <v>1.000210153415186</v>
+        <v>1.00098904593707</v>
       </c>
       <c r="Q4">
-        <v>1.000210153415186</v>
+        <v>1.00098904593707</v>
       </c>
       <c r="R4">
-        <v>1.000079366609096</v>
+        <v>1.000369229355663</v>
       </c>
       <c r="S4">
-        <v>1.000079366609096</v>
+        <v>1.000369229355663</v>
       </c>
       <c r="T4">
-        <v>1.000027657536261</v>
+        <v>1.000132956655639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9983856444317494</v>
+        <v>0.9955175332345002</v>
       </c>
       <c r="D5">
-        <v>1.001328584562606</v>
+        <v>1.003700740134771</v>
       </c>
       <c r="E5">
-        <v>0.9993995255154523</v>
+        <v>0.9983150020485188</v>
       </c>
       <c r="F5">
-        <v>0.9993962805780844</v>
+        <v>0.9983176962264153</v>
       </c>
       <c r="G5">
-        <v>1.002413678930295</v>
+        <v>1.00673022355795</v>
       </c>
       <c r="H5">
-        <v>0.9993949433916098</v>
+        <v>0.9983188037735845</v>
       </c>
       <c r="I5">
-        <v>0.9993995255154523</v>
+        <v>0.9983150020485188</v>
       </c>
       <c r="J5">
-        <v>1.002413678930295</v>
+        <v>1.00673022355795</v>
       </c>
       <c r="K5">
-        <v>0.9993995255154523</v>
+        <v>0.9983150020485188</v>
       </c>
       <c r="L5">
-        <v>0.9993949433916098</v>
+        <v>0.9983188037735845</v>
       </c>
       <c r="M5">
-        <v>1.000904311160952</v>
+        <v>1.002524513665767</v>
       </c>
       <c r="N5">
-        <v>1.000904311160952</v>
+        <v>1.002524513665767</v>
       </c>
       <c r="O5">
-        <v>1.00104573562817</v>
+        <v>1.002916589155435</v>
       </c>
       <c r="P5">
-        <v>1.000402715945786</v>
+        <v>1.001121343126685</v>
       </c>
       <c r="Q5">
-        <v>1.000402715945786</v>
+        <v>1.001121343126684</v>
       </c>
       <c r="R5">
-        <v>1.000151918338202</v>
+        <v>1.000419757857143</v>
       </c>
       <c r="S5">
-        <v>1.000151918338202</v>
+        <v>1.000419757857143</v>
       </c>
       <c r="T5">
-        <v>1.000053109568299</v>
+        <v>1.00014999982929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9976325414831287</v>
+        <v>0.9951914459090904</v>
       </c>
       <c r="D6">
-        <v>1.001948618995555</v>
+        <v>1.003967354090908</v>
       </c>
       <c r="E6">
-        <v>0.9991190332001251</v>
+        <v>0.9981963488636378</v>
       </c>
       <c r="F6">
-        <v>0.9991145246853895</v>
+        <v>0.9981966479545459</v>
       </c>
       <c r="G6">
-        <v>1.003540256824746</v>
+        <v>1.007213550397728</v>
       </c>
       <c r="H6">
-        <v>0.9991126602320963</v>
+        <v>0.9981967641477265</v>
       </c>
       <c r="I6">
-        <v>0.9991190332001251</v>
+        <v>0.9981963488636378</v>
       </c>
       <c r="J6">
-        <v>1.003540256824746</v>
+        <v>1.007213550397728</v>
       </c>
       <c r="K6">
-        <v>0.9991190332001251</v>
+        <v>0.9981963488636378</v>
       </c>
       <c r="L6">
-        <v>0.9991126602320963</v>
+        <v>0.9981967641477265</v>
       </c>
       <c r="M6">
-        <v>1.001326458528421</v>
+        <v>1.002705157272727</v>
       </c>
       <c r="N6">
-        <v>1.001326458528421</v>
+        <v>1.002705157272727</v>
       </c>
       <c r="O6">
-        <v>1.001533845350799</v>
+        <v>1.003125889545454</v>
       </c>
       <c r="P6">
-        <v>1.000590650085656</v>
+        <v>1.001202221136364</v>
       </c>
       <c r="Q6">
-        <v>1.000590650085656</v>
+        <v>1.001202221136364</v>
       </c>
       <c r="R6">
-        <v>1.000222745864273</v>
+        <v>1.000450753068183</v>
       </c>
       <c r="S6">
-        <v>1.000222745864273</v>
+        <v>1.000450753068183</v>
       </c>
       <c r="T6">
-        <v>1.00007793923684</v>
+        <v>1.000160351893939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999749007722888</v>
+        <v>1.029848766223534</v>
       </c>
       <c r="D7">
-        <v>1.000020660747454</v>
+        <v>0.9751565796411907</v>
       </c>
       <c r="E7">
-        <v>0.9999906583001333</v>
+        <v>1.011521885165535</v>
       </c>
       <c r="F7">
-        <v>0.9999906120094975</v>
+        <v>1.011304618398549</v>
       </c>
       <c r="G7">
-        <v>1.000037540387907</v>
+        <v>0.9547010954759817</v>
       </c>
       <c r="H7">
-        <v>0.9999905934030382</v>
+        <v>1.011215189617103</v>
       </c>
       <c r="I7">
-        <v>0.9999906583001333</v>
+        <v>1.011521885165535</v>
       </c>
       <c r="J7">
-        <v>1.000037540387907</v>
+        <v>0.9547010954759817</v>
       </c>
       <c r="K7">
-        <v>0.9999906583001333</v>
+        <v>1.011521885165535</v>
       </c>
       <c r="L7">
-        <v>0.9999905934030382</v>
+        <v>1.011215189617103</v>
       </c>
       <c r="M7">
-        <v>1.000014066895472</v>
+        <v>0.9829581425465423</v>
       </c>
       <c r="N7">
-        <v>1.000014066895472</v>
+        <v>0.9829581425465423</v>
       </c>
       <c r="O7">
-        <v>1.000016264846133</v>
+        <v>0.9803576215780918</v>
       </c>
       <c r="P7">
-        <v>1.00000626403036</v>
+        <v>0.9924793900862067</v>
       </c>
       <c r="Q7">
-        <v>1.00000626403036</v>
+        <v>0.9924793900862067</v>
       </c>
       <c r="R7">
-        <v>1.000002362597803</v>
+        <v>0.9972400138560388</v>
       </c>
       <c r="S7">
-        <v>1.000002362597803</v>
+        <v>0.9972400138560388</v>
       </c>
       <c r="T7">
-        <v>1.000000827603386</v>
+        <v>0.9989580224203157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999561914675327</v>
+        <v>1.029652748850638</v>
       </c>
       <c r="D8">
-        <v>1.000035789715006</v>
+        <v>0.9753182860880483</v>
       </c>
       <c r="E8">
-        <v>0.9999841035433287</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="F8">
-        <v>0.999983752197757</v>
+        <v>1.011231115806259</v>
       </c>
       <c r="G8">
-        <v>1.00006486637573</v>
+        <v>0.9549951027432287</v>
       </c>
       <c r="H8">
-        <v>0.9999836080711139</v>
+        <v>1.011141683921457</v>
       </c>
       <c r="I8">
-        <v>0.9999841035433287</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="J8">
-        <v>1.00006486637573</v>
+        <v>0.9549951027432287</v>
       </c>
       <c r="K8">
-        <v>0.9999841035433287</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="L8">
-        <v>0.9999836080711139</v>
+        <v>1.011141683921457</v>
       </c>
       <c r="M8">
-        <v>1.000024237223422</v>
+        <v>0.9830683933323427</v>
       </c>
       <c r="N8">
-        <v>1.000024237223422</v>
+        <v>0.9830683933323427</v>
       </c>
       <c r="O8">
-        <v>1.00002808805395</v>
+        <v>0.9804850242509113</v>
       </c>
       <c r="P8">
-        <v>1.000010859330058</v>
+        <v>0.992528392396455</v>
       </c>
       <c r="Q8">
-        <v>1.000010859330058</v>
+        <v>0.992528392396455</v>
       </c>
       <c r="R8">
-        <v>1.000004170383375</v>
+        <v>0.9972583919285112</v>
       </c>
       <c r="S8">
-        <v>1.000004170383375</v>
+        <v>0.9972583919285112</v>
       </c>
       <c r="T8">
-        <v>1.000001385228411</v>
+        <v>0.9989645546557183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999432552498964</v>
+        <v>1.029470571643577</v>
       </c>
       <c r="D9">
-        <v>1.000045841980631</v>
+        <v>0.9754700193480227</v>
       </c>
       <c r="E9">
-        <v>0.9999801862454137</v>
+        <v>1.011377909719145</v>
       </c>
       <c r="F9">
-        <v>0.9999792176589232</v>
+        <v>1.011162066110073</v>
       </c>
       <c r="G9">
-        <v>1.000082776187046</v>
+        <v>0.9552718317240297</v>
       </c>
       <c r="H9">
-        <v>0.9999788194933946</v>
+        <v>1.011073223197635</v>
       </c>
       <c r="I9">
-        <v>0.9999801862454137</v>
+        <v>1.011377909719145</v>
       </c>
       <c r="J9">
-        <v>1.000082776187046</v>
+        <v>0.9552718317240297</v>
       </c>
       <c r="K9">
-        <v>0.9999801862454137</v>
+        <v>1.011377909719145</v>
       </c>
       <c r="L9">
-        <v>0.9999788194933946</v>
+        <v>1.011073223197635</v>
       </c>
       <c r="M9">
-        <v>1.00003079784022</v>
+        <v>0.9831725274608325</v>
       </c>
       <c r="N9">
-        <v>1.00003079784022</v>
+        <v>0.9831725274608325</v>
       </c>
       <c r="O9">
-        <v>1.000035812553691</v>
+        <v>0.9806050247565626</v>
       </c>
       <c r="P9">
-        <v>1.000013927308618</v>
+        <v>0.9925743215469366</v>
       </c>
       <c r="Q9">
-        <v>1.000013927308618</v>
+        <v>0.9925743215469366</v>
       </c>
       <c r="R9">
-        <v>1.000005492042817</v>
+        <v>0.9972752185899887</v>
       </c>
       <c r="S9">
-        <v>1.000005492042817</v>
+        <v>0.9972752185899887</v>
       </c>
       <c r="T9">
-        <v>1.000001682802551</v>
+        <v>0.9989709369570806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.999872131745729</v>
+        <v>1.029183946379028</v>
       </c>
       <c r="D10">
-        <v>1.000103970017084</v>
+        <v>0.9757033473961806</v>
       </c>
       <c r="E10">
-        <v>0.9999543408891702</v>
+        <v>1.011275150936717</v>
       </c>
       <c r="F10">
-        <v>0.9999528253342344</v>
+        <v>1.011056182235262</v>
       </c>
       <c r="G10">
-        <v>1.000188140411769</v>
+        <v>0.9556942090667341</v>
       </c>
       <c r="H10">
-        <v>0.9999522030446029</v>
+        <v>1.010966053868259</v>
       </c>
       <c r="I10">
-        <v>0.9999543408891702</v>
+        <v>1.011275150936717</v>
       </c>
       <c r="J10">
-        <v>1.000188140411769</v>
+        <v>0.9556942090667341</v>
       </c>
       <c r="K10">
-        <v>0.9999543408891702</v>
+        <v>1.011275150936717</v>
       </c>
       <c r="L10">
-        <v>0.9999522030446029</v>
+        <v>1.010966053868259</v>
       </c>
       <c r="M10">
-        <v>1.000070171728186</v>
+        <v>0.9833301314674965</v>
       </c>
       <c r="N10">
-        <v>1.000070171728186</v>
+        <v>0.9833301314674965</v>
       </c>
       <c r="O10">
-        <v>1.000081437824485</v>
+        <v>0.9807878701103911</v>
       </c>
       <c r="P10">
-        <v>1.000031561448514</v>
+        <v>0.9926451379572369</v>
       </c>
       <c r="Q10">
-        <v>1.000031561448514</v>
+        <v>0.9926451379572369</v>
       </c>
       <c r="R10">
-        <v>1.000012256308678</v>
+        <v>0.9973026412021071</v>
       </c>
       <c r="S10">
-        <v>1.000012256308678</v>
+        <v>0.9973026412021071</v>
       </c>
       <c r="T10">
-        <v>1.000003935240432</v>
+        <v>0.9989798149803635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998102698548772</v>
+        <v>0.9996484827296056</v>
       </c>
       <c r="D11">
-        <v>1.00015238508475</v>
+        <v>1.000286648920484</v>
       </c>
       <c r="E11">
-        <v>0.9999350865478505</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="F11">
-        <v>0.9999309641166493</v>
+        <v>0.9998698923201698</v>
       </c>
       <c r="G11">
-        <v>1.00027462143927</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="H11">
-        <v>0.9999292682046509</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="I11">
-        <v>0.9999350865478505</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="J11">
-        <v>1.00027462143927</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="K11">
-        <v>0.9999350865478505</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="L11">
-        <v>0.9999292682046509</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="M11">
-        <v>1.000101944821961</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="N11">
-        <v>1.000101944821961</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="O11">
-        <v>1.00011875824289</v>
+        <v>1.000224789016595</v>
       </c>
       <c r="P11">
-        <v>1.000046325397257</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="Q11">
-        <v>1.000046325397257</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="R11">
-        <v>1.000018515684905</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="S11">
-        <v>1.000018515684905</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="T11">
-        <v>1.000005432541341</v>
+        <v>1.000010995610876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9982055897701504</v>
+        <v>0.9999404360079793</v>
       </c>
       <c r="D12">
-        <v>1.001426698866869</v>
+        <v>1.000048038583461</v>
       </c>
       <c r="E12">
-        <v>0.9994079411692615</v>
+        <v>0.999979323811376</v>
       </c>
       <c r="F12">
-        <v>0.9993544825523902</v>
+        <v>0.9999782265127499</v>
       </c>
       <c r="G12">
-        <v>1.002562255068849</v>
+        <v>1.000086693670394</v>
       </c>
       <c r="H12">
-        <v>0.9993324848991358</v>
+        <v>0.9999777750201494</v>
       </c>
       <c r="I12">
-        <v>0.9994079411692615</v>
+        <v>0.999979323811376</v>
       </c>
       <c r="J12">
-        <v>1.002562255068849</v>
+        <v>1.000086693670394</v>
       </c>
       <c r="K12">
-        <v>0.9994079411692615</v>
+        <v>0.999979323811376</v>
       </c>
       <c r="L12">
-        <v>0.9993324848991358</v>
+        <v>0.9999777750201494</v>
       </c>
       <c r="M12">
-        <v>1.000947369983993</v>
+        <v>1.000032234345272</v>
       </c>
       <c r="N12">
-        <v>1.000947369983993</v>
+        <v>1.000032234345272</v>
       </c>
       <c r="O12">
-        <v>1.001107146278285</v>
+        <v>1.000037502424668</v>
       </c>
       <c r="P12">
-        <v>1.000434227045749</v>
+        <v>1.00001459750064</v>
       </c>
       <c r="Q12">
-        <v>1.000434227045749</v>
+        <v>1.00001459750064</v>
       </c>
       <c r="R12">
-        <v>1.000177655576627</v>
+        <v>1.000005779078324</v>
       </c>
       <c r="S12">
-        <v>1.000177655576627</v>
+        <v>1.000005779078324</v>
       </c>
       <c r="T12">
-        <v>1.000048242054443</v>
+        <v>1.000001748934352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9995672249145106</v>
+        <v>0.999844411544571</v>
       </c>
       <c r="D13">
-        <v>1.000379627028692</v>
+        <v>1.000125878223049</v>
       </c>
       <c r="E13">
-        <v>0.9998036936522696</v>
+        <v>0.9999453957781937</v>
       </c>
       <c r="F13">
-        <v>0.9998261842488306</v>
+        <v>0.9999429220738107</v>
       </c>
       <c r="G13">
-        <v>1.000703587174933</v>
+        <v>1.000227402816636</v>
       </c>
       <c r="H13">
-        <v>0.999835442414725</v>
+        <v>0.9999419054619544</v>
       </c>
       <c r="I13">
-        <v>0.9998036936522696</v>
+        <v>0.9999453957781937</v>
       </c>
       <c r="J13">
-        <v>1.000703587174933</v>
+        <v>1.000227402816636</v>
       </c>
       <c r="K13">
-        <v>0.9998036936522696</v>
+        <v>0.9999453957781937</v>
       </c>
       <c r="L13">
-        <v>0.999835442414725</v>
+        <v>0.9999419054619544</v>
       </c>
       <c r="M13">
-        <v>1.000269514794829</v>
+        <v>1.000084654139295</v>
       </c>
       <c r="N13">
-        <v>1.000269514794829</v>
+        <v>1.000084654139295</v>
       </c>
       <c r="O13">
-        <v>1.000306218872783</v>
+        <v>1.000098395500547</v>
       </c>
       <c r="P13">
-        <v>1.000114241080643</v>
+        <v>1.000038234685595</v>
       </c>
       <c r="Q13">
-        <v>1.000114241080643</v>
+        <v>1.000038234685595</v>
       </c>
       <c r="R13">
-        <v>1.000036604223549</v>
+        <v>1.000015024958745</v>
       </c>
       <c r="S13">
-        <v>1.000036604223549</v>
+        <v>1.000015024958745</v>
       </c>
       <c r="T13">
-        <v>1.000019293238994</v>
+        <v>1.000004652649703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9896502829154836</v>
+        <v>0.9987929122809218</v>
       </c>
       <c r="D14">
-        <v>1.008898876915657</v>
+        <v>1.000993457584806</v>
       </c>
       <c r="E14">
-        <v>0.9955761297980881</v>
+        <v>0.9995509505021994</v>
       </c>
       <c r="F14">
-        <v>0.9959349935923743</v>
+        <v>0.9995485683006382</v>
       </c>
       <c r="G14">
-        <v>1.016392937007566</v>
+        <v>1.001804865297982</v>
       </c>
       <c r="H14">
-        <v>0.9960826735632273</v>
+        <v>0.9995475855624486</v>
       </c>
       <c r="I14">
-        <v>0.9955761297980881</v>
+        <v>0.9995509505021994</v>
       </c>
       <c r="J14">
-        <v>1.016392937007566</v>
+        <v>1.001804865297982</v>
       </c>
       <c r="K14">
-        <v>0.9955761297980881</v>
+        <v>0.9995509505021994</v>
       </c>
       <c r="L14">
-        <v>0.9960826735632273</v>
+        <v>0.9995475855624486</v>
       </c>
       <c r="M14">
-        <v>1.006237805285397</v>
+        <v>1.000676225430216</v>
       </c>
       <c r="N14">
-        <v>1.006237805285397</v>
+        <v>1.000676225430216</v>
       </c>
       <c r="O14">
-        <v>1.00712482916215</v>
+        <v>1.000781969481746</v>
       </c>
       <c r="P14">
-        <v>1.002683913456294</v>
+        <v>1.000301133787543</v>
       </c>
       <c r="Q14">
-        <v>1.002683913456294</v>
+        <v>1.000301133787543</v>
       </c>
       <c r="R14">
-        <v>1.000906967541742</v>
+        <v>1.000113587966208</v>
       </c>
       <c r="S14">
-        <v>1.000906967541742</v>
+        <v>1.000113587966208</v>
       </c>
       <c r="T14">
-        <v>1.000422648965399</v>
+        <v>1.000039723254833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9968784428149133</v>
+        <v>0.999563562022222</v>
       </c>
       <c r="D15">
-        <v>1.002427378172071</v>
+        <v>1.000359118065113</v>
       </c>
       <c r="E15">
-        <v>0.9990521781334182</v>
+        <v>0.9998377576235938</v>
       </c>
       <c r="F15">
-        <v>0.9989048862401907</v>
+        <v>0.9998368180394401</v>
       </c>
       <c r="G15">
-        <v>1.00432592511089</v>
+        <v>1.000652386336827</v>
       </c>
       <c r="H15">
-        <v>0.9988442654986501</v>
+        <v>0.9998364315635606</v>
       </c>
       <c r="I15">
-        <v>0.9990521781334182</v>
+        <v>0.9998377576235938</v>
       </c>
       <c r="J15">
-        <v>1.00432592511089</v>
+        <v>1.000652386336827</v>
       </c>
       <c r="K15">
-        <v>0.9990521781334182</v>
+        <v>0.9998377576235938</v>
       </c>
       <c r="L15">
-        <v>0.9988442654986501</v>
+        <v>0.9998364315635606</v>
       </c>
       <c r="M15">
-        <v>1.00158509530477</v>
+        <v>1.000244408950194</v>
       </c>
       <c r="N15">
-        <v>1.00158509530477</v>
+        <v>1.000244408950194</v>
       </c>
       <c r="O15">
-        <v>1.001865856260537</v>
+        <v>1.000282645321833</v>
       </c>
       <c r="P15">
-        <v>1.000740789580986</v>
+        <v>1.000108858507994</v>
       </c>
       <c r="Q15">
-        <v>1.000740789580986</v>
+        <v>1.000108858507994</v>
       </c>
       <c r="R15">
-        <v>1.000318636719094</v>
+        <v>1.000041083286894</v>
       </c>
       <c r="S15">
-        <v>1.000318636719094</v>
+        <v>1.000041083286894</v>
       </c>
       <c r="T15">
-        <v>1.000072179328356</v>
+        <v>1.000014345608459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9914949215434024</v>
+        <v>0.9991572253540326</v>
       </c>
       <c r="D16">
-        <v>1.007001490445431</v>
+        <v>1.000693266117362</v>
       </c>
       <c r="E16">
-        <v>0.9968334892827655</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="F16">
-        <v>0.9968183557812798</v>
+        <v>0.9996849935006176</v>
       </c>
       <c r="G16">
-        <v>1.01272099135825</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="H16">
-        <v>0.9968121218380639</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="I16">
-        <v>0.9968334892827655</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="J16">
-        <v>1.01272099135825</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="K16">
-        <v>0.9968334892827655</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="L16">
-        <v>0.9968121218380639</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="M16">
-        <v>1.004766556598157</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="N16">
-        <v>1.004766556598157</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="O16">
-        <v>1.005511534547248</v>
+        <v>1.000545573390698</v>
       </c>
       <c r="P16">
-        <v>1.00212220082636</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="Q16">
-        <v>1.00212220082636</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="R16">
-        <v>1.000800022940461</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="S16">
-        <v>1.000800022940461</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="T16">
-        <v>1.000280228374865</v>
+        <v>1.000027657536261</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.993058030690656</v>
+        <v>0.9983856444317494</v>
       </c>
       <c r="D17">
-        <v>1.005719080207106</v>
+        <v>1.001328584562606</v>
       </c>
       <c r="E17">
-        <v>0.9974088785223879</v>
+        <v>0.9993995255154523</v>
       </c>
       <c r="F17">
-        <v>0.9974008693571582</v>
+        <v>0.9993962805780844</v>
       </c>
       <c r="G17">
-        <v>1.010393570635947</v>
+        <v>1.002413678930295</v>
       </c>
       <c r="H17">
-        <v>0.9973975694744341</v>
+        <v>0.9993949433916098</v>
       </c>
       <c r="I17">
-        <v>0.9974088785223879</v>
+        <v>0.9993995255154523</v>
       </c>
       <c r="J17">
-        <v>1.010393570635947</v>
+        <v>1.002413678930295</v>
       </c>
       <c r="K17">
-        <v>0.9974088785223879</v>
+        <v>0.9993995255154523</v>
       </c>
       <c r="L17">
-        <v>0.9973975694744341</v>
+        <v>0.9993949433916098</v>
       </c>
       <c r="M17">
-        <v>1.003895570055191</v>
+        <v>1.000904311160952</v>
       </c>
       <c r="N17">
-        <v>1.003895570055191</v>
+        <v>1.000904311160952</v>
       </c>
       <c r="O17">
-        <v>1.004503406772496</v>
+        <v>1.00104573562817</v>
       </c>
       <c r="P17">
-        <v>1.001733339544256</v>
+        <v>1.000402715945786</v>
       </c>
       <c r="Q17">
-        <v>1.001733339544256</v>
+        <v>1.000402715945786</v>
       </c>
       <c r="R17">
-        <v>1.000652224288789</v>
+        <v>1.000151918338202</v>
       </c>
       <c r="S17">
-        <v>1.000652224288789</v>
+        <v>1.000151918338202</v>
       </c>
       <c r="T17">
-        <v>1.000229666481282</v>
+        <v>1.000053109568299</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9962239132922237</v>
+        <v>0.9976325414831287</v>
       </c>
       <c r="D18">
-        <v>1.003120895629267</v>
+        <v>1.001948618995555</v>
       </c>
       <c r="E18">
-        <v>0.9985754982560598</v>
+        <v>0.9991190332001251</v>
       </c>
       <c r="F18">
-        <v>0.9985810992918772</v>
+        <v>0.9991145246853895</v>
       </c>
       <c r="G18">
-        <v>1.005677685355994</v>
+        <v>1.003540256824746</v>
       </c>
       <c r="H18">
-        <v>0.9985834024100173</v>
+        <v>0.9991126602320963</v>
       </c>
       <c r="I18">
-        <v>0.9985754982560598</v>
+        <v>0.9991190332001251</v>
       </c>
       <c r="J18">
-        <v>1.005677685355994</v>
+        <v>1.003540256824746</v>
       </c>
       <c r="K18">
-        <v>0.9985754982560598</v>
+        <v>0.9991190332001251</v>
       </c>
       <c r="L18">
-        <v>0.9985834024100173</v>
+        <v>0.9991126602320963</v>
       </c>
       <c r="M18">
-        <v>1.002130543883006</v>
+        <v>1.001326458528421</v>
       </c>
       <c r="N18">
-        <v>1.002130543883006</v>
+        <v>1.001326458528421</v>
       </c>
       <c r="O18">
-        <v>1.002460661131759</v>
+        <v>1.001533845350799</v>
       </c>
       <c r="P18">
-        <v>1.000945528674024</v>
+        <v>1.000590650085656</v>
       </c>
       <c r="Q18">
-        <v>1.000945528674024</v>
+        <v>1.000590650085656</v>
       </c>
       <c r="R18">
-        <v>1.000353021069533</v>
+        <v>1.000222745864273</v>
       </c>
       <c r="S18">
-        <v>1.000353021069533</v>
+        <v>1.000222745864273</v>
       </c>
       <c r="T18">
-        <v>1.000127082372573</v>
+        <v>1.00007793923684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.995973951997324</v>
+        <v>0.9999749007722888</v>
       </c>
       <c r="D19">
-        <v>1.003332894085547</v>
+        <v>1.000020660747454</v>
       </c>
       <c r="E19">
-        <v>0.9984730555203349</v>
+        <v>0.9999906583001333</v>
       </c>
       <c r="F19">
-        <v>0.9984844118287821</v>
+        <v>0.9999906120094975</v>
       </c>
       <c r="G19">
-        <v>1.006066559994675</v>
+        <v>1.000037540387907</v>
       </c>
       <c r="H19">
-        <v>0.9984890864013287</v>
+        <v>0.9999905934030382</v>
       </c>
       <c r="I19">
-        <v>0.9984730555203349</v>
+        <v>0.9999906583001333</v>
       </c>
       <c r="J19">
-        <v>1.006066559994675</v>
+        <v>1.000037540387907</v>
       </c>
       <c r="K19">
-        <v>0.9984730555203349</v>
+        <v>0.9999906583001333</v>
       </c>
       <c r="L19">
-        <v>0.9984890864013287</v>
+        <v>0.9999905934030382</v>
       </c>
       <c r="M19">
-        <v>1.002277823198002</v>
+        <v>1.000014066895472</v>
       </c>
       <c r="N19">
-        <v>1.002277823198002</v>
+        <v>1.000014066895472</v>
       </c>
       <c r="O19">
-        <v>1.00262951349385</v>
+        <v>1.000016264846133</v>
       </c>
       <c r="P19">
-        <v>1.001009567305446</v>
+        <v>1.00000626403036</v>
       </c>
       <c r="Q19">
-        <v>1.001009567305446</v>
+        <v>1.00000626403036</v>
       </c>
       <c r="R19">
-        <v>1.000375439359168</v>
+        <v>1.000002362597803</v>
       </c>
       <c r="S19">
-        <v>1.000375439359168</v>
+        <v>1.000002362597803</v>
       </c>
       <c r="T19">
-        <v>1.000136659971332</v>
+        <v>1.000000827603386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.999999642087146</v>
+        <v>0.9999561914675327</v>
       </c>
       <c r="D20">
-        <v>1.000001526876128</v>
+        <v>1.000035789715006</v>
       </c>
       <c r="E20">
-        <v>0.9999980120544331</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="F20">
-        <v>0.9999992381471445</v>
+        <v>0.999983752197757</v>
       </c>
       <c r="G20">
-        <v>1.000003507066983</v>
+        <v>1.00006486637573</v>
       </c>
       <c r="H20">
-        <v>0.9999997430837519</v>
+        <v>0.9999836080711139</v>
       </c>
       <c r="I20">
-        <v>0.9999980120544331</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="J20">
-        <v>1.000003507066983</v>
+        <v>1.00006486637573</v>
       </c>
       <c r="K20">
-        <v>0.9999980120544331</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="L20">
-        <v>0.9999997430837519</v>
+        <v>0.9999836080711139</v>
       </c>
       <c r="M20">
-        <v>1.000001625075368</v>
+        <v>1.000024237223422</v>
       </c>
       <c r="N20">
-        <v>1.000001625075368</v>
+        <v>1.000024237223422</v>
       </c>
       <c r="O20">
-        <v>1.000001592342288</v>
+        <v>1.00002808805395</v>
       </c>
       <c r="P20">
-        <v>1.000000420735056</v>
+        <v>1.000010859330058</v>
       </c>
       <c r="Q20">
-        <v>1.000000420735056</v>
+        <v>1.000010859330058</v>
       </c>
       <c r="R20">
-        <v>0.9999998185649003</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="S20">
-        <v>0.9999998185649003</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="T20">
-        <v>1.000000278219265</v>
+        <v>1.000001385228411</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999599147259965</v>
+        <v>0.9999432552498964</v>
       </c>
       <c r="D21">
-        <v>1.000031345648932</v>
+        <v>1.000045841980631</v>
       </c>
       <c r="E21">
-        <v>0.9999875669404142</v>
+        <v>0.9999801862454137</v>
       </c>
       <c r="F21">
-        <v>0.9999858489540983</v>
+        <v>0.9999792176589232</v>
       </c>
       <c r="G21">
-        <v>1.000055974196975</v>
+        <v>1.000082776187046</v>
       </c>
       <c r="H21">
-        <v>0.9999851420782735</v>
+        <v>0.9999788194933946</v>
       </c>
       <c r="I21">
-        <v>0.9999875669404142</v>
+        <v>0.9999801862454137</v>
       </c>
       <c r="J21">
-        <v>1.000055974196975</v>
+        <v>1.000082776187046</v>
       </c>
       <c r="K21">
-        <v>0.9999875669404142</v>
+        <v>0.9999801862454137</v>
       </c>
       <c r="L21">
-        <v>0.9999851420782735</v>
+        <v>0.9999788194933946</v>
       </c>
       <c r="M21">
-        <v>1.000020558137624</v>
+        <v>1.00003079784022</v>
       </c>
       <c r="N21">
-        <v>1.000020558137624</v>
+        <v>1.00003079784022</v>
       </c>
       <c r="O21">
-        <v>1.000024153974727</v>
+        <v>1.000035812553691</v>
       </c>
       <c r="P21">
-        <v>1.000009561071888</v>
+        <v>1.000013927308618</v>
       </c>
       <c r="Q21">
-        <v>1.000009561071888</v>
+        <v>1.000013927308618</v>
       </c>
       <c r="R21">
-        <v>1.000004062539019</v>
+        <v>1.000005492042817</v>
       </c>
       <c r="S21">
-        <v>1.000004062539019</v>
+        <v>1.000005492042817</v>
       </c>
       <c r="T21">
-        <v>1.000000965424115</v>
+        <v>1.000001682802551</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9998697462216242</v>
+        <v>0.999872131745729</v>
       </c>
       <c r="D22">
-        <v>1.000110696069929</v>
+        <v>1.000103970017084</v>
       </c>
       <c r="E22">
-        <v>0.9999462815488652</v>
+        <v>0.9999543408891702</v>
       </c>
       <c r="F22">
-        <v>0.9999495054421271</v>
+        <v>0.9999528253342344</v>
       </c>
       <c r="G22">
-        <v>1.000203183820438</v>
+        <v>1.000188140411769</v>
       </c>
       <c r="H22">
-        <v>0.999950828013853</v>
+        <v>0.9999522030446029</v>
       </c>
       <c r="I22">
-        <v>0.9999462815488652</v>
+        <v>0.9999543408891702</v>
       </c>
       <c r="J22">
-        <v>1.000203183820438</v>
+        <v>1.000188140411769</v>
       </c>
       <c r="K22">
-        <v>0.9999462815488652</v>
+        <v>0.9999543408891702</v>
       </c>
       <c r="L22">
-        <v>0.999950828013853</v>
+        <v>0.9999522030446029</v>
       </c>
       <c r="M22">
-        <v>1.000077005917146</v>
+        <v>1.000070171728186</v>
       </c>
       <c r="N22">
-        <v>1.000077005917146</v>
+        <v>1.000070171728186</v>
       </c>
       <c r="O22">
-        <v>1.000088235968074</v>
+        <v>1.000081437824485</v>
       </c>
       <c r="P22">
-        <v>1.000033431127719</v>
+        <v>1.000031561448514</v>
       </c>
       <c r="Q22">
-        <v>1.000033431127719</v>
+        <v>1.000031561448514</v>
       </c>
       <c r="R22">
-        <v>1.000011643733006</v>
+        <v>1.000012256308678</v>
       </c>
       <c r="S22">
-        <v>1.000011643733006</v>
+        <v>1.000012256308678</v>
       </c>
       <c r="T22">
-        <v>1.00000504018614</v>
+        <v>1.000003935240432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998102698548772</v>
+      </c>
+      <c r="D23">
+        <v>1.00015238508475</v>
+      </c>
+      <c r="E23">
+        <v>0.9999350865478505</v>
+      </c>
+      <c r="F23">
+        <v>0.9999309641166493</v>
+      </c>
+      <c r="G23">
+        <v>1.00027462143927</v>
+      </c>
+      <c r="H23">
+        <v>0.9999292682046509</v>
+      </c>
+      <c r="I23">
+        <v>0.9999350865478505</v>
+      </c>
+      <c r="J23">
+        <v>1.00027462143927</v>
+      </c>
+      <c r="K23">
+        <v>0.9999350865478505</v>
+      </c>
+      <c r="L23">
+        <v>0.9999292682046509</v>
+      </c>
+      <c r="M23">
+        <v>1.000101944821961</v>
+      </c>
+      <c r="N23">
+        <v>1.000101944821961</v>
+      </c>
+      <c r="O23">
+        <v>1.00011875824289</v>
+      </c>
+      <c r="P23">
+        <v>1.000046325397257</v>
+      </c>
+      <c r="Q23">
+        <v>1.000046325397257</v>
+      </c>
+      <c r="R23">
+        <v>1.000018515684905</v>
+      </c>
+      <c r="S23">
+        <v>1.000018515684905</v>
+      </c>
+      <c r="T23">
+        <v>1.000005432541341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9982055897701504</v>
+      </c>
+      <c r="D24">
+        <v>1.001426698866869</v>
+      </c>
+      <c r="E24">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="F24">
+        <v>0.9993544825523902</v>
+      </c>
+      <c r="G24">
+        <v>1.002562255068849</v>
+      </c>
+      <c r="H24">
+        <v>0.9993324848991358</v>
+      </c>
+      <c r="I24">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="J24">
+        <v>1.002562255068849</v>
+      </c>
+      <c r="K24">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="L24">
+        <v>0.9993324848991358</v>
+      </c>
+      <c r="M24">
+        <v>1.000947369983993</v>
+      </c>
+      <c r="N24">
+        <v>1.000947369983993</v>
+      </c>
+      <c r="O24">
+        <v>1.001107146278285</v>
+      </c>
+      <c r="P24">
+        <v>1.000434227045749</v>
+      </c>
+      <c r="Q24">
+        <v>1.000434227045749</v>
+      </c>
+      <c r="R24">
+        <v>1.000177655576627</v>
+      </c>
+      <c r="S24">
+        <v>1.000177655576627</v>
+      </c>
+      <c r="T24">
+        <v>1.000048242054443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9995672249145106</v>
+      </c>
+      <c r="D25">
+        <v>1.000379627028692</v>
+      </c>
+      <c r="E25">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="F25">
+        <v>0.9998261842488306</v>
+      </c>
+      <c r="G25">
+        <v>1.000703587174933</v>
+      </c>
+      <c r="H25">
+        <v>0.999835442414725</v>
+      </c>
+      <c r="I25">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="J25">
+        <v>1.000703587174933</v>
+      </c>
+      <c r="K25">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="L25">
+        <v>0.999835442414725</v>
+      </c>
+      <c r="M25">
+        <v>1.000269514794829</v>
+      </c>
+      <c r="N25">
+        <v>1.000269514794829</v>
+      </c>
+      <c r="O25">
+        <v>1.000306218872783</v>
+      </c>
+      <c r="P25">
+        <v>1.000114241080643</v>
+      </c>
+      <c r="Q25">
+        <v>1.000114241080643</v>
+      </c>
+      <c r="R25">
+        <v>1.000036604223549</v>
+      </c>
+      <c r="S25">
+        <v>1.000036604223549</v>
+      </c>
+      <c r="T25">
+        <v>1.000019293238994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9896502829154836</v>
+      </c>
+      <c r="D26">
+        <v>1.008898876915657</v>
+      </c>
+      <c r="E26">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="F26">
+        <v>0.9959349935923743</v>
+      </c>
+      <c r="G26">
+        <v>1.016392937007566</v>
+      </c>
+      <c r="H26">
+        <v>0.9960826735632273</v>
+      </c>
+      <c r="I26">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="J26">
+        <v>1.016392937007566</v>
+      </c>
+      <c r="K26">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="L26">
+        <v>0.9960826735632273</v>
+      </c>
+      <c r="M26">
+        <v>1.006237805285397</v>
+      </c>
+      <c r="N26">
+        <v>1.006237805285397</v>
+      </c>
+      <c r="O26">
+        <v>1.00712482916215</v>
+      </c>
+      <c r="P26">
+        <v>1.002683913456294</v>
+      </c>
+      <c r="Q26">
+        <v>1.002683913456294</v>
+      </c>
+      <c r="R26">
+        <v>1.000906967541742</v>
+      </c>
+      <c r="S26">
+        <v>1.000906967541742</v>
+      </c>
+      <c r="T26">
+        <v>1.000422648965399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9968784428149133</v>
+      </c>
+      <c r="D27">
+        <v>1.002427378172071</v>
+      </c>
+      <c r="E27">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="F27">
+        <v>0.9989048862401907</v>
+      </c>
+      <c r="G27">
+        <v>1.00432592511089</v>
+      </c>
+      <c r="H27">
+        <v>0.9988442654986501</v>
+      </c>
+      <c r="I27">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="J27">
+        <v>1.00432592511089</v>
+      </c>
+      <c r="K27">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="L27">
+        <v>0.9988442654986501</v>
+      </c>
+      <c r="M27">
+        <v>1.00158509530477</v>
+      </c>
+      <c r="N27">
+        <v>1.00158509530477</v>
+      </c>
+      <c r="O27">
+        <v>1.001865856260537</v>
+      </c>
+      <c r="P27">
+        <v>1.000740789580986</v>
+      </c>
+      <c r="Q27">
+        <v>1.000740789580986</v>
+      </c>
+      <c r="R27">
+        <v>1.000318636719094</v>
+      </c>
+      <c r="S27">
+        <v>1.000318636719094</v>
+      </c>
+      <c r="T27">
+        <v>1.000072179328356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9914949215434024</v>
+      </c>
+      <c r="D28">
+        <v>1.007001490445431</v>
+      </c>
+      <c r="E28">
+        <v>0.9968334892827655</v>
+      </c>
+      <c r="F28">
+        <v>0.9968183557812798</v>
+      </c>
+      <c r="G28">
+        <v>1.01272099135825</v>
+      </c>
+      <c r="H28">
+        <v>0.9968121218380639</v>
+      </c>
+      <c r="I28">
+        <v>0.9968334892827655</v>
+      </c>
+      <c r="J28">
+        <v>1.01272099135825</v>
+      </c>
+      <c r="K28">
+        <v>0.9968334892827655</v>
+      </c>
+      <c r="L28">
+        <v>0.9968121218380639</v>
+      </c>
+      <c r="M28">
+        <v>1.004766556598157</v>
+      </c>
+      <c r="N28">
+        <v>1.004766556598157</v>
+      </c>
+      <c r="O28">
+        <v>1.005511534547248</v>
+      </c>
+      <c r="P28">
+        <v>1.00212220082636</v>
+      </c>
+      <c r="Q28">
+        <v>1.00212220082636</v>
+      </c>
+      <c r="R28">
+        <v>1.000800022940461</v>
+      </c>
+      <c r="S28">
+        <v>1.000800022940461</v>
+      </c>
+      <c r="T28">
+        <v>1.000280228374865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.993058030690656</v>
+      </c>
+      <c r="D29">
+        <v>1.005719080207106</v>
+      </c>
+      <c r="E29">
+        <v>0.9974088785223879</v>
+      </c>
+      <c r="F29">
+        <v>0.9974008693571582</v>
+      </c>
+      <c r="G29">
+        <v>1.010393570635947</v>
+      </c>
+      <c r="H29">
+        <v>0.9973975694744341</v>
+      </c>
+      <c r="I29">
+        <v>0.9974088785223879</v>
+      </c>
+      <c r="J29">
+        <v>1.010393570635947</v>
+      </c>
+      <c r="K29">
+        <v>0.9974088785223879</v>
+      </c>
+      <c r="L29">
+        <v>0.9973975694744341</v>
+      </c>
+      <c r="M29">
+        <v>1.003895570055191</v>
+      </c>
+      <c r="N29">
+        <v>1.003895570055191</v>
+      </c>
+      <c r="O29">
+        <v>1.004503406772496</v>
+      </c>
+      <c r="P29">
+        <v>1.001733339544256</v>
+      </c>
+      <c r="Q29">
+        <v>1.001733339544256</v>
+      </c>
+      <c r="R29">
+        <v>1.000652224288789</v>
+      </c>
+      <c r="S29">
+        <v>1.000652224288789</v>
+      </c>
+      <c r="T29">
+        <v>1.000229666481282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9962239132922237</v>
+      </c>
+      <c r="D30">
+        <v>1.003120895629267</v>
+      </c>
+      <c r="E30">
+        <v>0.9985754982560598</v>
+      </c>
+      <c r="F30">
+        <v>0.9985810992918772</v>
+      </c>
+      <c r="G30">
+        <v>1.005677685355994</v>
+      </c>
+      <c r="H30">
+        <v>0.9985834024100173</v>
+      </c>
+      <c r="I30">
+        <v>0.9985754982560598</v>
+      </c>
+      <c r="J30">
+        <v>1.005677685355994</v>
+      </c>
+      <c r="K30">
+        <v>0.9985754982560598</v>
+      </c>
+      <c r="L30">
+        <v>0.9985834024100173</v>
+      </c>
+      <c r="M30">
+        <v>1.002130543883006</v>
+      </c>
+      <c r="N30">
+        <v>1.002130543883006</v>
+      </c>
+      <c r="O30">
+        <v>1.002460661131759</v>
+      </c>
+      <c r="P30">
+        <v>1.000945528674024</v>
+      </c>
+      <c r="Q30">
+        <v>1.000945528674024</v>
+      </c>
+      <c r="R30">
+        <v>1.000353021069533</v>
+      </c>
+      <c r="S30">
+        <v>1.000353021069533</v>
+      </c>
+      <c r="T30">
+        <v>1.000127082372573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.995973951997324</v>
+      </c>
+      <c r="D31">
+        <v>1.003332894085547</v>
+      </c>
+      <c r="E31">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="F31">
+        <v>0.9984844118287821</v>
+      </c>
+      <c r="G31">
+        <v>1.006066559994675</v>
+      </c>
+      <c r="H31">
+        <v>0.9984890864013287</v>
+      </c>
+      <c r="I31">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="J31">
+        <v>1.006066559994675</v>
+      </c>
+      <c r="K31">
+        <v>0.9984730555203349</v>
+      </c>
+      <c r="L31">
+        <v>0.9984890864013287</v>
+      </c>
+      <c r="M31">
+        <v>1.002277823198002</v>
+      </c>
+      <c r="N31">
+        <v>1.002277823198002</v>
+      </c>
+      <c r="O31">
+        <v>1.00262951349385</v>
+      </c>
+      <c r="P31">
+        <v>1.001009567305446</v>
+      </c>
+      <c r="Q31">
+        <v>1.001009567305446</v>
+      </c>
+      <c r="R31">
+        <v>1.000375439359168</v>
+      </c>
+      <c r="S31">
+        <v>1.000375439359168</v>
+      </c>
+      <c r="T31">
+        <v>1.000136659971332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9904771846575346</v>
+      </c>
+      <c r="D32">
+        <v>1.007822036712329</v>
+      </c>
+      <c r="E32">
+        <v>0.9964805846575342</v>
+      </c>
+      <c r="F32">
+        <v>0.996446444109589</v>
+      </c>
+      <c r="G32">
+        <v>1.014201601917808</v>
+      </c>
+      <c r="H32">
+        <v>0.9964323868493153</v>
+      </c>
+      <c r="I32">
+        <v>0.9964805846575342</v>
+      </c>
+      <c r="J32">
+        <v>1.014201601917808</v>
+      </c>
+      <c r="K32">
+        <v>0.9964805846575342</v>
+      </c>
+      <c r="L32">
+        <v>0.9964323868493153</v>
+      </c>
+      <c r="M32">
+        <v>1.005316994383562</v>
+      </c>
+      <c r="N32">
+        <v>1.005316994383562</v>
+      </c>
+      <c r="O32">
+        <v>1.006152008493151</v>
+      </c>
+      <c r="P32">
+        <v>1.002371524474886</v>
+      </c>
+      <c r="Q32">
+        <v>1.002371524474886</v>
+      </c>
+      <c r="R32">
+        <v>1.000898789520548</v>
+      </c>
+      <c r="S32">
+        <v>1.000898789520548</v>
+      </c>
+      <c r="T32">
+        <v>1.000310039817352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.012602551052632</v>
+      </c>
+      <c r="D33">
+        <v>0.9898836663157894</v>
+      </c>
+      <c r="E33">
+        <v>1.004303105789474</v>
+      </c>
+      <c r="F33">
+        <v>1.004582716315789</v>
+      </c>
+      <c r="G33">
+        <v>0.9817727205263155</v>
+      </c>
+      <c r="H33">
+        <v>1.004697773157895</v>
+      </c>
+      <c r="I33">
+        <v>1.004303105789474</v>
+      </c>
+      <c r="J33">
+        <v>0.9817727205263155</v>
+      </c>
+      <c r="K33">
+        <v>1.004303105789474</v>
+      </c>
+      <c r="L33">
+        <v>1.004697773157895</v>
+      </c>
+      <c r="M33">
+        <v>0.9932352468421051</v>
+      </c>
+      <c r="N33">
+        <v>0.9932352468421051</v>
+      </c>
+      <c r="O33">
+        <v>0.9921180533333332</v>
+      </c>
+      <c r="P33">
+        <v>0.9969245331578946</v>
+      </c>
+      <c r="Q33">
+        <v>0.9969245331578946</v>
+      </c>
+      <c r="R33">
+        <v>0.9987691763157894</v>
+      </c>
+      <c r="S33">
+        <v>0.9987691763157894</v>
+      </c>
+      <c r="T33">
+        <v>0.9996404221929825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.025583883157895</v>
+      </c>
+      <c r="D34">
+        <v>0.9786793852631579</v>
+      </c>
+      <c r="E34">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="F34">
+        <v>1.009703103157895</v>
+      </c>
+      <c r="G34">
+        <v>0.9611087315789472</v>
+      </c>
+      <c r="H34">
+        <v>1.009615429473684</v>
+      </c>
+      <c r="I34">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="J34">
+        <v>0.9611087315789472</v>
+      </c>
+      <c r="K34">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="L34">
+        <v>1.009615429473684</v>
+      </c>
+      <c r="M34">
+        <v>0.9853620805263157</v>
+      </c>
+      <c r="N34">
+        <v>0.9853620805263157</v>
+      </c>
+      <c r="O34">
+        <v>0.9831345154385964</v>
+      </c>
+      <c r="P34">
+        <v>0.9935467575438596</v>
+      </c>
+      <c r="Q34">
+        <v>0.9935467575438596</v>
+      </c>
+      <c r="R34">
+        <v>0.9976390960526316</v>
+      </c>
+      <c r="S34">
+        <v>0.9976390960526316</v>
+      </c>
+      <c r="T34">
+        <v>0.9991011073684209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9847664181476675</v>
+      </c>
+      <c r="D35">
+        <v>1.012607177777642</v>
+      </c>
+      <c r="E35">
+        <v>0.9942279442817825</v>
+      </c>
+      <c r="F35">
+        <v>0.9942672646115096</v>
+      </c>
+      <c r="G35">
+        <v>1.02294553821687</v>
+      </c>
+      <c r="H35">
+        <v>0.9942834433010034</v>
+      </c>
+      <c r="I35">
+        <v>0.9942279442817825</v>
+      </c>
+      <c r="J35">
+        <v>1.02294553821687</v>
+      </c>
+      <c r="K35">
+        <v>0.9942279442817825</v>
+      </c>
+      <c r="L35">
+        <v>0.9942834433010034</v>
+      </c>
+      <c r="M35">
+        <v>1.008614490758936</v>
+      </c>
+      <c r="N35">
+        <v>1.008614490758936</v>
+      </c>
+      <c r="O35">
+        <v>1.009945386431838</v>
+      </c>
+      <c r="P35">
+        <v>1.003818975266552</v>
+      </c>
+      <c r="Q35">
+        <v>1.003818975266552</v>
+      </c>
+      <c r="R35">
+        <v>1.00142121752036</v>
+      </c>
+      <c r="S35">
+        <v>1.00142121752036</v>
+      </c>
+      <c r="T35">
+        <v>1.000516297722746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.999999642087146</v>
+      </c>
+      <c r="D36">
+        <v>1.000001526876128</v>
+      </c>
+      <c r="E36">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="F36">
+        <v>0.9999992381471445</v>
+      </c>
+      <c r="G36">
+        <v>1.000003507066983</v>
+      </c>
+      <c r="H36">
+        <v>0.9999997430837519</v>
+      </c>
+      <c r="I36">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="J36">
+        <v>1.000003507066983</v>
+      </c>
+      <c r="K36">
+        <v>0.9999980120544331</v>
+      </c>
+      <c r="L36">
+        <v>0.9999997430837519</v>
+      </c>
+      <c r="M36">
+        <v>1.000001625075368</v>
+      </c>
+      <c r="N36">
+        <v>1.000001625075368</v>
+      </c>
+      <c r="O36">
+        <v>1.000001592342288</v>
+      </c>
+      <c r="P36">
+        <v>1.000000420735056</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000420735056</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998185649003</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998185649003</v>
+      </c>
+      <c r="T36">
+        <v>1.000000278219265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999599147259965</v>
+      </c>
+      <c r="D37">
+        <v>1.000031345648932</v>
+      </c>
+      <c r="E37">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="F37">
+        <v>0.9999858489540983</v>
+      </c>
+      <c r="G37">
+        <v>1.000055974196975</v>
+      </c>
+      <c r="H37">
+        <v>0.9999851420782735</v>
+      </c>
+      <c r="I37">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="J37">
+        <v>1.000055974196975</v>
+      </c>
+      <c r="K37">
+        <v>0.9999875669404142</v>
+      </c>
+      <c r="L37">
+        <v>0.9999851420782735</v>
+      </c>
+      <c r="M37">
+        <v>1.000020558137624</v>
+      </c>
+      <c r="N37">
+        <v>1.000020558137624</v>
+      </c>
+      <c r="O37">
+        <v>1.000024153974727</v>
+      </c>
+      <c r="P37">
+        <v>1.000009561071888</v>
+      </c>
+      <c r="Q37">
+        <v>1.000009561071888</v>
+      </c>
+      <c r="R37">
+        <v>1.000004062539019</v>
+      </c>
+      <c r="S37">
+        <v>1.000004062539019</v>
+      </c>
+      <c r="T37">
+        <v>1.000000965424115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9998697462216242</v>
+      </c>
+      <c r="D38">
+        <v>1.000110696069929</v>
+      </c>
+      <c r="E38">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="F38">
+        <v>0.9999495054421271</v>
+      </c>
+      <c r="G38">
+        <v>1.000203183820438</v>
+      </c>
+      <c r="H38">
+        <v>0.999950828013853</v>
+      </c>
+      <c r="I38">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="J38">
+        <v>1.000203183820438</v>
+      </c>
+      <c r="K38">
+        <v>0.9999462815488652</v>
+      </c>
+      <c r="L38">
+        <v>0.999950828013853</v>
+      </c>
+      <c r="M38">
+        <v>1.000077005917146</v>
+      </c>
+      <c r="N38">
+        <v>1.000077005917146</v>
+      </c>
+      <c r="O38">
+        <v>1.000088235968074</v>
+      </c>
+      <c r="P38">
+        <v>1.000033431127719</v>
+      </c>
+      <c r="Q38">
+        <v>1.000033431127719</v>
+      </c>
+      <c r="R38">
+        <v>1.000011643733006</v>
+      </c>
+      <c r="S38">
+        <v>1.000011643733006</v>
+      </c>
+      <c r="T38">
+        <v>1.00000504018614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9997012196973705</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000259525235631</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9998683310941364</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.999881308274888</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000479579573885</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9998866459810432</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998683310941364</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000479579573885</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9998683310941364</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998866459810432</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000183112777464</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000183112777464</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000208583596853</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000078185549688</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000078185549689</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.0000257219358</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.0000257219358</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000012768309492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00991928244716</v>
+      </c>
+      <c r="D40">
+        <v>0.991880581547167</v>
+      </c>
+      <c r="E40">
+        <v>1.003623360892389</v>
+      </c>
+      <c r="F40">
+        <v>1.003687083769817</v>
+      </c>
+      <c r="G40">
+        <v>0.9852752705818766</v>
+      </c>
+      <c r="H40">
+        <v>1.003713308414594</v>
+      </c>
+      <c r="I40">
+        <v>1.003623360892389</v>
+      </c>
+      <c r="J40">
+        <v>0.9852752705818766</v>
+      </c>
+      <c r="K40">
+        <v>1.003623360892389</v>
+      </c>
+      <c r="L40">
+        <v>1.003713308414594</v>
+      </c>
+      <c r="M40">
+        <v>0.9944942894982353</v>
+      </c>
+      <c r="N40">
+        <v>0.9944942894982353</v>
+      </c>
+      <c r="O40">
+        <v>0.9936230535145457</v>
+      </c>
+      <c r="P40">
+        <v>0.9975373132962867</v>
+      </c>
+      <c r="Q40">
+        <v>0.9975373132962867</v>
+      </c>
+      <c r="R40">
+        <v>0.9990588251953124</v>
+      </c>
+      <c r="S40">
+        <v>0.9990588251953124</v>
+      </c>
+      <c r="T40">
+        <v>0.9996831479421674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9998663299685</v>
+      </c>
+      <c r="D41">
+        <v>1.000091251826204</v>
+      </c>
+      <c r="E41">
+        <v>0.9999785298680925</v>
+      </c>
+      <c r="F41">
+        <v>0.999959581729404</v>
+      </c>
+      <c r="G41">
+        <v>1.000154662022936</v>
+      </c>
+      <c r="H41">
+        <v>0.9999517852167696</v>
+      </c>
+      <c r="I41">
+        <v>0.9999785298680925</v>
+      </c>
+      <c r="J41">
+        <v>1.000154662022936</v>
+      </c>
+      <c r="K41">
+        <v>0.9999785298680925</v>
+      </c>
+      <c r="L41">
+        <v>0.9999517852167696</v>
+      </c>
+      <c r="M41">
+        <v>1.000053223619853</v>
+      </c>
+      <c r="N41">
+        <v>1.000053223619853</v>
+      </c>
+      <c r="O41">
+        <v>1.000065899688637</v>
+      </c>
+      <c r="P41">
+        <v>1.000028325702599</v>
+      </c>
+      <c r="Q41">
+        <v>1.000028325702599</v>
+      </c>
+      <c r="R41">
+        <v>1.000015876743973</v>
+      </c>
+      <c r="S41">
+        <v>1.000015876743973</v>
+      </c>
+      <c r="T41">
+        <v>1.000000356771984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9985484124243843</v>
+      </c>
+      <c r="D42">
+        <v>1.001307564920632</v>
+      </c>
+      <c r="E42">
+        <v>0.9992899837971561</v>
+      </c>
+      <c r="F42">
+        <v>0.9993995323223185</v>
+      </c>
+      <c r="G42">
+        <v>1.00244245724188</v>
+      </c>
+      <c r="H42">
+        <v>0.9994446102511735</v>
+      </c>
+      <c r="I42">
+        <v>0.9992899837971561</v>
+      </c>
+      <c r="J42">
+        <v>1.00244245724188</v>
+      </c>
+      <c r="K42">
+        <v>0.9992899837971561</v>
+      </c>
+      <c r="L42">
+        <v>0.9994446102511735</v>
+      </c>
+      <c r="M42">
+        <v>1.000943533746527</v>
+      </c>
+      <c r="N42">
+        <v>1.000943533746527</v>
+      </c>
+      <c r="O42">
+        <v>1.001064877471229</v>
+      </c>
+      <c r="P42">
+        <v>1.00039235043007</v>
+      </c>
+      <c r="Q42">
+        <v>1.00039235043007</v>
+      </c>
+      <c r="R42">
+        <v>1.000116758771842</v>
+      </c>
+      <c r="S42">
+        <v>1.000116758771842</v>
+      </c>
+      <c r="T42">
+        <v>1.000072093492924</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998377576235938</v>
+        <v>0.9999561914675327</v>
       </c>
       <c r="D3">
-        <v>1.000652386336827</v>
+        <v>1.000035789715006</v>
       </c>
       <c r="E3">
-        <v>0.9998364315635606</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="F3">
-        <v>0.9998377576235938</v>
+        <v>0.999983752197757</v>
       </c>
       <c r="G3">
-        <v>0.9995635620222219</v>
+        <v>1.00006486637573</v>
       </c>
       <c r="H3">
-        <v>1.000359118065113</v>
+        <v>0.9999836080711139</v>
       </c>
       <c r="I3">
-        <v>0.9998368180394401</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="J3">
-        <v>1.000652386336827</v>
+        <v>1.00006486637573</v>
       </c>
       <c r="K3">
-        <v>0.9998377576235938</v>
+        <v>0.9999841035433287</v>
       </c>
       <c r="L3">
-        <v>0.9998364315635606</v>
+        <v>0.9999836080711139</v>
       </c>
       <c r="M3">
-        <v>1.000244408950194</v>
+        <v>1.000024237223422</v>
       </c>
       <c r="N3">
-        <v>1.000244408950194</v>
+        <v>1.000024237223422</v>
       </c>
       <c r="O3">
-        <v>1.000282645321833</v>
+        <v>1.00002808805395</v>
       </c>
       <c r="P3">
-        <v>1.000108858507994</v>
+        <v>1.000010859330058</v>
       </c>
       <c r="Q3">
-        <v>1.000108858507994</v>
+        <v>1.000010859330058</v>
       </c>
       <c r="R3">
-        <v>1.000041083286894</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="S3">
-        <v>1.000041083286894</v>
+        <v>1.000004170383375</v>
       </c>
       <c r="T3">
-        <v>1.000014345608459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000001385228411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996870061908255</v>
+        <v>1.00991928244716</v>
       </c>
       <c r="D4">
-        <v>1.001259290310473</v>
+        <v>0.991880581547167</v>
       </c>
       <c r="E4">
-        <v>0.9996841637442594</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="F4">
-        <v>0.9996870061908255</v>
+        <v>1.003687083769817</v>
       </c>
       <c r="G4">
-        <v>0.9991572253540326</v>
+        <v>0.9852752705818766</v>
       </c>
       <c r="H4">
-        <v>1.000693266117362</v>
+        <v>1.003713308414594</v>
       </c>
       <c r="I4">
-        <v>0.9996849935006176</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="J4">
-        <v>1.001259290310473</v>
+        <v>0.9852752705818766</v>
       </c>
       <c r="K4">
-        <v>0.9996870061908255</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="L4">
-        <v>0.9996841637442594</v>
+        <v>1.003713308414594</v>
       </c>
       <c r="M4">
-        <v>1.000471727027366</v>
+        <v>0.9944942894982353</v>
       </c>
       <c r="N4">
-        <v>1.000471727027366</v>
+        <v>0.9944942894982353</v>
       </c>
       <c r="O4">
-        <v>1.000545573390698</v>
+        <v>0.9936230535145457</v>
       </c>
       <c r="P4">
-        <v>1.000210153415186</v>
+        <v>0.9975373132962867</v>
       </c>
       <c r="Q4">
-        <v>1.000210153415186</v>
+        <v>0.9975373132962867</v>
       </c>
       <c r="R4">
-        <v>1.000079366609096</v>
+        <v>0.9990588251953124</v>
       </c>
       <c r="S4">
-        <v>1.000079366609096</v>
+        <v>0.9990588251953124</v>
       </c>
       <c r="T4">
-        <v>1.000027657536261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9996831479421674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993995255154523</v>
+        <v>0.9958665703314138</v>
       </c>
       <c r="D5">
-        <v>1.002413678930295</v>
+        <v>1.003415044711815</v>
       </c>
       <c r="E5">
-        <v>0.9993949433916098</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="F5">
-        <v>0.9993995255154523</v>
+        <v>0.9984474304178642</v>
       </c>
       <c r="G5">
-        <v>0.9983856444317494</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="H5">
-        <v>1.001328584562606</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="I5">
-        <v>0.9993962805780846</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="J5">
-        <v>1.002413678930295</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="K5">
-        <v>0.9993995255154523</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="L5">
-        <v>0.9993949433916098</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="M5">
-        <v>1.000904311160952</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="N5">
-        <v>1.000904311160952</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="O5">
-        <v>1.00104573562817</v>
+        <v>1.002692209058598</v>
       </c>
       <c r="P5">
-        <v>1.000402715945786</v>
+        <v>1.001034689017772</v>
       </c>
       <c r="Q5">
-        <v>1.000402715945786</v>
+        <v>1.001034689017771</v>
       </c>
       <c r="R5">
-        <v>1.000151918338202</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="S5">
-        <v>1.000151918338202</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="T5">
-        <v>1.000053109568299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000138852085735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9991190332001251</v>
+        <v>0.9847664181476675</v>
       </c>
       <c r="D6">
-        <v>1.003540256824746</v>
+        <v>1.012607177777642</v>
       </c>
       <c r="E6">
-        <v>0.9991126602320963</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="F6">
-        <v>0.9991190332001251</v>
+        <v>0.9942672646115096</v>
       </c>
       <c r="G6">
-        <v>0.9976325414831286</v>
+        <v>1.02294553821687</v>
       </c>
       <c r="H6">
-        <v>1.001948618995555</v>
+        <v>0.9942834433010034</v>
       </c>
       <c r="I6">
-        <v>0.9991145246853895</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="J6">
-        <v>1.003540256824746</v>
+        <v>1.02294553821687</v>
       </c>
       <c r="K6">
-        <v>0.9991190332001251</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="L6">
-        <v>0.9991126602320963</v>
+        <v>0.9942834433010034</v>
       </c>
       <c r="M6">
-        <v>1.001326458528421</v>
+        <v>1.008614490758936</v>
       </c>
       <c r="N6">
-        <v>1.001326458528421</v>
+        <v>1.008614490758936</v>
       </c>
       <c r="O6">
-        <v>1.001533845350799</v>
+        <v>1.009945386431838</v>
       </c>
       <c r="P6">
-        <v>1.000590650085656</v>
+        <v>1.003818975266552</v>
       </c>
       <c r="Q6">
-        <v>1.000590650085656</v>
+        <v>1.003818975266552</v>
       </c>
       <c r="R6">
-        <v>1.000222745864273</v>
+        <v>1.00142121752036</v>
       </c>
       <c r="S6">
-        <v>1.000222745864273</v>
+        <v>1.00142121752036</v>
       </c>
       <c r="T6">
-        <v>1.00007793923684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000516297722746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999906583001333</v>
+        <v>0.9996484827296056</v>
       </c>
       <c r="D7">
-        <v>1.000037540387907</v>
+        <v>1.000286648920484</v>
       </c>
       <c r="E7">
-        <v>0.9999905934030382</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="F7">
-        <v>0.9999906583001333</v>
+        <v>0.9998698923201698</v>
       </c>
       <c r="G7">
-        <v>0.9999749007722888</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="H7">
-        <v>1.000020660747454</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="I7">
-        <v>0.9999906120094975</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="J7">
-        <v>1.000037540387907</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="K7">
-        <v>0.9999906583001333</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="L7">
-        <v>0.9999905934030382</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="M7">
-        <v>1.000014066895472</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="N7">
-        <v>1.000014066895472</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="O7">
-        <v>1.000016264846133</v>
+        <v>1.000224789016595</v>
       </c>
       <c r="P7">
-        <v>1.00000626403036</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="Q7">
-        <v>1.00000626403036</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="R7">
-        <v>1.000002362597803</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="S7">
-        <v>1.000002362597803</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="T7">
-        <v>1.000000827603386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000010995610876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999841035433287</v>
+        <v>0.9999599147259965</v>
       </c>
       <c r="D8">
-        <v>1.00006486637573</v>
+        <v>1.000031345648932</v>
       </c>
       <c r="E8">
-        <v>0.9999836080711141</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="F8">
-        <v>0.9999841035433287</v>
+        <v>0.9999858489540983</v>
       </c>
       <c r="G8">
-        <v>0.9999561914675325</v>
+        <v>1.000055974196975</v>
       </c>
       <c r="H8">
-        <v>1.000035789715006</v>
+        <v>0.9999851420782735</v>
       </c>
       <c r="I8">
-        <v>0.9999837521977568</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="J8">
-        <v>1.00006486637573</v>
+        <v>1.000055974196975</v>
       </c>
       <c r="K8">
-        <v>0.9999841035433287</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="L8">
-        <v>0.9999836080711141</v>
+        <v>0.9999851420782735</v>
       </c>
       <c r="M8">
-        <v>1.000024237223422</v>
+        <v>1.000020558137624</v>
       </c>
       <c r="N8">
-        <v>1.000024237223422</v>
+        <v>1.000020558137624</v>
       </c>
       <c r="O8">
-        <v>1.00002808805395</v>
+        <v>1.000024153974727</v>
       </c>
       <c r="P8">
-        <v>1.000010859330058</v>
+        <v>1.000009561071888</v>
       </c>
       <c r="Q8">
-        <v>1.000010859330058</v>
+        <v>1.000009561071888</v>
       </c>
       <c r="R8">
-        <v>1.000004170383376</v>
+        <v>1.000004062539019</v>
       </c>
       <c r="S8">
-        <v>1.000004170383376</v>
+        <v>1.000004062539019</v>
       </c>
       <c r="T8">
-        <v>1.000001385228411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000965424115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999801862454137</v>
+        <v>0.9991572253540326</v>
       </c>
       <c r="D9">
-        <v>1.000082776187046</v>
+        <v>1.000693266117362</v>
       </c>
       <c r="E9">
-        <v>0.9999788194933946</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="F9">
-        <v>0.9999801862454137</v>
+        <v>0.9996849935006176</v>
       </c>
       <c r="G9">
-        <v>0.9999432552498964</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="H9">
-        <v>1.000045841980631</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="I9">
-        <v>0.9999792176589231</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="J9">
-        <v>1.000082776187046</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="K9">
-        <v>0.9999801862454137</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="L9">
-        <v>0.9999788194933946</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="M9">
-        <v>1.00003079784022</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="N9">
-        <v>1.00003079784022</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="O9">
-        <v>1.000035812553691</v>
+        <v>1.000545573390698</v>
       </c>
       <c r="P9">
-        <v>1.000013927308618</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="Q9">
-        <v>1.000013927308618</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="R9">
-        <v>1.000005492042817</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="S9">
-        <v>1.000005492042817</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="T9">
-        <v>1.000001682802551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000027657536261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999543408891702</v>
+        <v>0.9845396778302372</v>
       </c>
       <c r="D10">
-        <v>1.000188140411769</v>
+        <v>1.012795472200757</v>
       </c>
       <c r="E10">
-        <v>0.9999522030446029</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="F10">
-        <v>0.9999543408891702</v>
+        <v>0.9941816065867213</v>
       </c>
       <c r="G10">
-        <v>0.999872131745729</v>
+        <v>1.023288622792587</v>
       </c>
       <c r="H10">
-        <v>1.000103970017083</v>
+        <v>0.994198291602584</v>
       </c>
       <c r="I10">
-        <v>0.9999528253342344</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="J10">
-        <v>1.000188140411769</v>
+        <v>1.023288622792587</v>
       </c>
       <c r="K10">
-        <v>0.9999543408891702</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="L10">
-        <v>0.9999522030446029</v>
+        <v>0.994198291602584</v>
       </c>
       <c r="M10">
-        <v>1.000070171728186</v>
+        <v>1.008743457197586</v>
       </c>
       <c r="N10">
-        <v>1.000070171728186</v>
+        <v>1.008743457197586</v>
       </c>
       <c r="O10">
-        <v>1.000081437824485</v>
+        <v>1.01009412886531</v>
       </c>
       <c r="P10">
-        <v>1.000031561448514</v>
+        <v>1.003875990571938</v>
       </c>
       <c r="Q10">
-        <v>1.000031561448514</v>
+        <v>1.003875990571938</v>
       </c>
       <c r="R10">
-        <v>1.000012256308678</v>
+        <v>1.001442257259114</v>
       </c>
       <c r="S10">
-        <v>1.000012256308678</v>
+        <v>1.001442257259114</v>
       </c>
       <c r="T10">
-        <v>1.000003935240432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000524121388922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999350865478507</v>
+        <v>1.007900555212038</v>
       </c>
       <c r="D11">
-        <v>1.00027462143927</v>
+        <v>0.9935301510974722</v>
       </c>
       <c r="E11">
-        <v>0.9999292682046509</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="F11">
-        <v>0.9999350865478507</v>
+        <v>1.002938163402078</v>
       </c>
       <c r="G11">
-        <v>0.9998102698548772</v>
+        <v>0.9882650956178629</v>
       </c>
       <c r="H11">
-        <v>1.00015238508475</v>
+        <v>1.00295788012761</v>
       </c>
       <c r="I11">
-        <v>0.9999309641166493</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="J11">
-        <v>1.00027462143927</v>
+        <v>0.9882650956178629</v>
       </c>
       <c r="K11">
-        <v>0.9999350865478507</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="L11">
-        <v>0.9999292682046509</v>
+        <v>1.00295788012761</v>
       </c>
       <c r="M11">
-        <v>1.000101944821961</v>
+        <v>0.9956114878727366</v>
       </c>
       <c r="N11">
-        <v>1.000101944821961</v>
+        <v>0.9956114878727366</v>
       </c>
       <c r="O11">
-        <v>1.00011875824289</v>
+        <v>0.9949177089476485</v>
       </c>
       <c r="P11">
-        <v>1.000046325397257</v>
+        <v>0.9980377436612281</v>
       </c>
       <c r="Q11">
-        <v>1.000046325397257</v>
+        <v>0.9980377436612281</v>
       </c>
       <c r="R11">
-        <v>1.000018515684906</v>
+        <v>0.9992508715554738</v>
       </c>
       <c r="S11">
-        <v>1.000018515684906</v>
+        <v>0.9992508715554738</v>
       </c>
       <c r="T11">
-        <v>1.000005432541341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9997470167825454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9994079411692615</v>
+        <v>0.9956923018736854</v>
       </c>
       <c r="D12">
-        <v>1.002562255068849</v>
+        <v>1.003563986357894</v>
       </c>
       <c r="E12">
-        <v>0.9993324848991358</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="F12">
-        <v>0.9994079411692615</v>
+        <v>0.9983794404210509</v>
       </c>
       <c r="G12">
-        <v>0.9982055897701504</v>
+        <v>1.006485980736842</v>
       </c>
       <c r="H12">
-        <v>1.001426698866869</v>
+        <v>0.9983835955157899</v>
       </c>
       <c r="I12">
-        <v>0.9993544825523902</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="J12">
-        <v>1.002562255068849</v>
+        <v>1.006485980736842</v>
       </c>
       <c r="K12">
-        <v>0.9994079411692615</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="L12">
-        <v>0.9993324848991358</v>
+        <v>0.9983835955157899</v>
       </c>
       <c r="M12">
-        <v>1.000947369983993</v>
+        <v>1.002434788126316</v>
       </c>
       <c r="N12">
-        <v>1.000947369983993</v>
+        <v>1.002434788126316</v>
       </c>
       <c r="O12">
-        <v>1.001107146278285</v>
+        <v>1.002811187536842</v>
       </c>
       <c r="P12">
-        <v>1.000434227045749</v>
+        <v>1.001079640480701</v>
       </c>
       <c r="Q12">
-        <v>1.000434227045749</v>
+        <v>1.001079640480701</v>
       </c>
       <c r="R12">
-        <v>1.000177655576627</v>
+        <v>1.000402066657894</v>
       </c>
       <c r="S12">
-        <v>1.000177655576627</v>
+        <v>1.000402066657894</v>
       </c>
       <c r="T12">
-        <v>1.000048242054443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000145775015789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998036936522696</v>
+        <v>1.00305080900136</v>
       </c>
       <c r="D13">
-        <v>1.000703587174933</v>
+        <v>0.9974837779374079</v>
       </c>
       <c r="E13">
-        <v>0.999835442414725</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="F13">
-        <v>0.9998036936522696</v>
+        <v>1.001143696648352</v>
       </c>
       <c r="G13">
-        <v>0.9995672249145106</v>
+        <v>0.9954254655794565</v>
       </c>
       <c r="H13">
-        <v>1.000379627028692</v>
+        <v>1.001143984285609</v>
       </c>
       <c r="I13">
-        <v>0.9998261842488304</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="J13">
-        <v>1.000703587174933</v>
+        <v>0.9954254655794565</v>
       </c>
       <c r="K13">
-        <v>0.9998036936522696</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="L13">
-        <v>0.999835442414725</v>
+        <v>1.001143984285609</v>
       </c>
       <c r="M13">
-        <v>1.000269514794829</v>
+        <v>0.9982847249325328</v>
       </c>
       <c r="N13">
-        <v>1.000269514794829</v>
+        <v>0.9982847249325328</v>
       </c>
       <c r="O13">
-        <v>1.000306218872783</v>
+        <v>0.9980177426008247</v>
       </c>
       <c r="P13">
-        <v>1.000114241080643</v>
+        <v>0.9992374848585378</v>
       </c>
       <c r="Q13">
-        <v>1.000114241080643</v>
+        <v>0.9992374848585378</v>
       </c>
       <c r="R13">
-        <v>1.000036604223549</v>
+        <v>0.9997138648215403</v>
       </c>
       <c r="S13">
-        <v>1.000036604223549</v>
+        <v>0.9997138648215403</v>
       </c>
       <c r="T13">
-        <v>1.000019293238993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9998984563604555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9955761297980881</v>
+        <v>0.9732909399999987</v>
       </c>
       <c r="D14">
-        <v>1.016392937007566</v>
+        <v>1.022106899999999</v>
       </c>
       <c r="E14">
-        <v>0.9960826735632273</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="F14">
-        <v>0.9955761297980881</v>
+        <v>0.9899473999999997</v>
       </c>
       <c r="G14">
-        <v>0.9896502829154837</v>
+        <v>1.040237</v>
       </c>
       <c r="H14">
-        <v>1.008898876915657</v>
+        <v>0.9899768800000001</v>
       </c>
       <c r="I14">
-        <v>0.9959349935923743</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="J14">
-        <v>1.016392937007566</v>
+        <v>1.040237</v>
       </c>
       <c r="K14">
-        <v>0.9955761297980881</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="L14">
-        <v>0.9960826735632273</v>
+        <v>0.9899768800000001</v>
       </c>
       <c r="M14">
-        <v>1.006237805285397</v>
+        <v>1.01510694</v>
       </c>
       <c r="N14">
-        <v>1.006237805285397</v>
+        <v>1.01510694</v>
       </c>
       <c r="O14">
-        <v>1.00712482916215</v>
+        <v>1.01744026</v>
       </c>
       <c r="P14">
-        <v>1.002683913456294</v>
+        <v>1.006696543333333</v>
       </c>
       <c r="Q14">
-        <v>1.002683913456294</v>
+        <v>1.006696543333333</v>
       </c>
       <c r="R14">
-        <v>1.000906967541742</v>
+        <v>1.002491345</v>
       </c>
       <c r="S14">
-        <v>1.000906967541742</v>
+        <v>1.002491345</v>
       </c>
       <c r="T14">
-        <v>1.000422648965399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000905811666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990521781334182</v>
+        <v>1.0301398</v>
       </c>
       <c r="D15">
-        <v>1.00432592511089</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E15">
-        <v>0.9988442654986501</v>
+        <v>1.012634</v>
       </c>
       <c r="F15">
-        <v>0.9990521781334182</v>
+        <v>1.0117535</v>
       </c>
       <c r="G15">
-        <v>0.9968784428149133</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H15">
-        <v>1.002427378172071</v>
+        <v>1.0113912</v>
       </c>
       <c r="I15">
-        <v>0.9989048862401907</v>
+        <v>1.012634</v>
       </c>
       <c r="J15">
-        <v>1.00432592511089</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K15">
-        <v>0.9990521781334182</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>0.9988442654986501</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>1.00158509530477</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>1.00158509530477</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>1.001865856260537</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>1.000740789580986</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>1.000740789580986</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>1.000318636719094</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>1.000318636719094</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>1.000072179328356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999980120544331</v>
+        <v>1.0731527</v>
       </c>
       <c r="D16">
-        <v>1.000003507066983</v>
+        <v>0.9402993399999999</v>
       </c>
       <c r="E16">
-        <v>0.9999997430837519</v>
+        <v>1.0264528</v>
       </c>
       <c r="F16">
-        <v>0.9999980120544331</v>
+        <v>1.0271005</v>
       </c>
       <c r="G16">
-        <v>0.999999642087146</v>
+        <v>0.89183799</v>
       </c>
       <c r="H16">
-        <v>1.000001526876128</v>
+        <v>1.027367</v>
       </c>
       <c r="I16">
-        <v>0.9999992381471445</v>
+        <v>1.0264528</v>
       </c>
       <c r="J16">
-        <v>1.000003507066983</v>
+        <v>0.89183799</v>
       </c>
       <c r="K16">
-        <v>0.9999980120544331</v>
+        <v>1.0264528</v>
       </c>
       <c r="L16">
-        <v>0.9999997430837519</v>
+        <v>1.027367</v>
       </c>
       <c r="M16">
-        <v>1.000001625075368</v>
+        <v>0.9596024949999999</v>
       </c>
       <c r="N16">
-        <v>1.000001625075368</v>
+        <v>0.9596024949999999</v>
       </c>
       <c r="O16">
-        <v>1.000001592342288</v>
+        <v>0.95316811</v>
       </c>
       <c r="P16">
-        <v>1.000000420735056</v>
+        <v>0.9818859299999999</v>
       </c>
       <c r="Q16">
-        <v>1.000000420735056</v>
+        <v>0.9818859299999999</v>
       </c>
       <c r="R16">
-        <v>0.9999998185649003</v>
+        <v>0.9930276474999999</v>
       </c>
       <c r="S16">
-        <v>0.9999998185649003</v>
+        <v>0.9930276474999999</v>
       </c>
       <c r="T16">
-        <v>1.000000278219265</v>
+        <v>0.9977017216666665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999875669404142</v>
+        <v>1.0306177</v>
       </c>
       <c r="D17">
-        <v>1.000055974196975</v>
+        <v>0.97447203</v>
       </c>
       <c r="E17">
-        <v>0.9999851420782735</v>
+        <v>1.0118858</v>
       </c>
       <c r="F17">
-        <v>0.9999875669404142</v>
+        <v>1.0116186</v>
       </c>
       <c r="G17">
-        <v>0.9999599147259968</v>
+        <v>0.9534268</v>
       </c>
       <c r="H17">
-        <v>1.000031345648932</v>
+        <v>1.0115086</v>
       </c>
       <c r="I17">
-        <v>0.9999858489540983</v>
+        <v>1.0118858</v>
       </c>
       <c r="J17">
-        <v>1.000055974196975</v>
+        <v>0.9534268</v>
       </c>
       <c r="K17">
-        <v>0.9999875669404142</v>
+        <v>1.0118858</v>
       </c>
       <c r="L17">
-        <v>0.9999851420782735</v>
+        <v>1.0115086</v>
       </c>
       <c r="M17">
-        <v>1.000020558137624</v>
+        <v>0.9824676999999999</v>
       </c>
       <c r="N17">
-        <v>1.000020558137624</v>
+        <v>0.9824676999999999</v>
       </c>
       <c r="O17">
-        <v>1.000024153974727</v>
+        <v>0.9798024766666668</v>
       </c>
       <c r="P17">
-        <v>1.000009561071888</v>
+        <v>0.9922737333333332</v>
       </c>
       <c r="Q17">
-        <v>1.000009561071888</v>
+        <v>0.9922737333333332</v>
       </c>
       <c r="R17">
-        <v>1.000004062539019</v>
+        <v>0.9971767499999999</v>
       </c>
       <c r="S17">
-        <v>1.000004062539019</v>
+        <v>0.9971767499999999</v>
       </c>
       <c r="T17">
-        <v>1.000000965424115</v>
+        <v>0.9989215883333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999462815488653</v>
+        <v>0.9904771846575346</v>
       </c>
       <c r="D18">
-        <v>1.000203183820439</v>
+        <v>1.007822036712329</v>
       </c>
       <c r="E18">
-        <v>0.9999508280138528</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="F18">
-        <v>0.9999462815488653</v>
+        <v>0.996446444109589</v>
       </c>
       <c r="G18">
-        <v>0.9998697462216243</v>
+        <v>1.014201601917808</v>
       </c>
       <c r="H18">
-        <v>1.000110696069929</v>
+        <v>0.9964323868493153</v>
       </c>
       <c r="I18">
-        <v>0.9999495054421272</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="J18">
-        <v>1.000203183820439</v>
+        <v>1.014201601917808</v>
       </c>
       <c r="K18">
-        <v>0.9999462815488653</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="L18">
-        <v>0.9999508280138528</v>
+        <v>0.9964323868493153</v>
       </c>
       <c r="M18">
-        <v>1.000077005917146</v>
+        <v>1.005316994383562</v>
       </c>
       <c r="N18">
-        <v>1.000077005917146</v>
+        <v>1.005316994383562</v>
       </c>
       <c r="O18">
-        <v>1.000088235968074</v>
+        <v>1.006152008493151</v>
       </c>
       <c r="P18">
-        <v>1.000033431127719</v>
+        <v>1.002371524474886</v>
       </c>
       <c r="Q18">
-        <v>1.000033431127719</v>
+        <v>1.002371524474886</v>
       </c>
       <c r="R18">
-        <v>1.000011643733006</v>
+        <v>1.000898789520548</v>
       </c>
       <c r="S18">
-        <v>1.000011643733006</v>
+        <v>1.000898789520548</v>
       </c>
       <c r="T18">
-        <v>1.00000504018614</v>
+        <v>1.000310039817352</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998683310941361</v>
+        <v>1.012602551052632</v>
       </c>
       <c r="D19">
-        <v>1.000479579573885</v>
+        <v>0.9898836663157894</v>
       </c>
       <c r="E19">
-        <v>0.9998866459810432</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="F19">
-        <v>0.9998683310941361</v>
+        <v>1.004582716315789</v>
       </c>
       <c r="G19">
-        <v>0.9997012196973705</v>
+        <v>0.9817727205263155</v>
       </c>
       <c r="H19">
-        <v>1.000259525235631</v>
+        <v>1.004697773157895</v>
       </c>
       <c r="I19">
-        <v>0.999881308274888</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="J19">
-        <v>1.000479579573885</v>
+        <v>0.9817727205263155</v>
       </c>
       <c r="K19">
-        <v>0.9998683310941361</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="L19">
-        <v>0.9998866459810432</v>
+        <v>1.004697773157895</v>
       </c>
       <c r="M19">
-        <v>1.000183112777464</v>
+        <v>0.9932352468421051</v>
       </c>
       <c r="N19">
-        <v>1.000183112777464</v>
+        <v>0.9932352468421051</v>
       </c>
       <c r="O19">
-        <v>1.000208583596853</v>
+        <v>0.9921180533333332</v>
       </c>
       <c r="P19">
-        <v>1.000078185549688</v>
+        <v>0.9969245331578946</v>
       </c>
       <c r="Q19">
-        <v>1.000078185549688</v>
+        <v>0.9969245331578946</v>
       </c>
       <c r="R19">
-        <v>1.0000257219358</v>
+        <v>0.9987691763157894</v>
       </c>
       <c r="S19">
-        <v>1.0000257219358</v>
+        <v>0.9987691763157894</v>
       </c>
       <c r="T19">
-        <v>1.000012768309492</v>
+        <v>0.9996404221929825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.025583883157895</v>
+      </c>
+      <c r="D20">
+        <v>0.9786793852631579</v>
+      </c>
+      <c r="E20">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="F20">
+        <v>1.009703103157895</v>
+      </c>
+      <c r="G20">
+        <v>0.9611087315789472</v>
+      </c>
+      <c r="H20">
+        <v>1.009615429473684</v>
+      </c>
+      <c r="I20">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="J20">
+        <v>0.9611087315789472</v>
+      </c>
+      <c r="K20">
+        <v>1.009916111578948</v>
+      </c>
+      <c r="L20">
+        <v>1.009615429473684</v>
+      </c>
+      <c r="M20">
+        <v>0.9853620805263157</v>
+      </c>
+      <c r="N20">
+        <v>0.9853620805263157</v>
+      </c>
+      <c r="O20">
+        <v>0.9831345154385964</v>
+      </c>
+      <c r="P20">
+        <v>0.9935467575438596</v>
+      </c>
+      <c r="Q20">
+        <v>0.9935467575438596</v>
+      </c>
+      <c r="R20">
+        <v>0.9976390960526316</v>
+      </c>
+      <c r="S20">
+        <v>0.9976390960526316</v>
+      </c>
+      <c r="T20">
+        <v>0.9991011073684209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9896502829154836</v>
+      </c>
+      <c r="D21">
+        <v>1.008898876915657</v>
+      </c>
+      <c r="E21">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="F21">
+        <v>0.9959349935923743</v>
+      </c>
+      <c r="G21">
+        <v>1.016392937007566</v>
+      </c>
+      <c r="H21">
+        <v>0.9960826735632273</v>
+      </c>
+      <c r="I21">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="J21">
+        <v>1.016392937007566</v>
+      </c>
+      <c r="K21">
+        <v>0.9955761297980881</v>
+      </c>
+      <c r="L21">
+        <v>0.9960826735632273</v>
+      </c>
+      <c r="M21">
+        <v>1.006237805285397</v>
+      </c>
+      <c r="N21">
+        <v>1.006237805285397</v>
+      </c>
+      <c r="O21">
+        <v>1.00712482916215</v>
+      </c>
+      <c r="P21">
+        <v>1.002683913456294</v>
+      </c>
+      <c r="Q21">
+        <v>1.002683913456294</v>
+      </c>
+      <c r="R21">
+        <v>1.000906967541742</v>
+      </c>
+      <c r="S21">
+        <v>1.000906967541742</v>
+      </c>
+      <c r="T21">
+        <v>1.000422648965399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9968784428149133</v>
+      </c>
+      <c r="D22">
+        <v>1.002427378172071</v>
+      </c>
+      <c r="E22">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="F22">
+        <v>0.9989048862401907</v>
+      </c>
+      <c r="G22">
+        <v>1.00432592511089</v>
+      </c>
+      <c r="H22">
+        <v>0.9988442654986501</v>
+      </c>
+      <c r="I22">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="J22">
+        <v>1.00432592511089</v>
+      </c>
+      <c r="K22">
+        <v>0.9990521781334182</v>
+      </c>
+      <c r="L22">
+        <v>0.9988442654986501</v>
+      </c>
+      <c r="M22">
+        <v>1.00158509530477</v>
+      </c>
+      <c r="N22">
+        <v>1.00158509530477</v>
+      </c>
+      <c r="O22">
+        <v>1.001865856260537</v>
+      </c>
+      <c r="P22">
+        <v>1.000740789580986</v>
+      </c>
+      <c r="Q22">
+        <v>1.000740789580986</v>
+      </c>
+      <c r="R22">
+        <v>1.000318636719094</v>
+      </c>
+      <c r="S22">
+        <v>1.000318636719094</v>
+      </c>
+      <c r="T22">
+        <v>1.000072179328356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9982055897701504</v>
+      </c>
+      <c r="D23">
+        <v>1.001426698866869</v>
+      </c>
+      <c r="E23">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="F23">
+        <v>0.9993544825523902</v>
+      </c>
+      <c r="G23">
+        <v>1.002562255068849</v>
+      </c>
+      <c r="H23">
+        <v>0.9993324848991358</v>
+      </c>
+      <c r="I23">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="J23">
+        <v>1.002562255068849</v>
+      </c>
+      <c r="K23">
+        <v>0.9994079411692615</v>
+      </c>
+      <c r="L23">
+        <v>0.9993324848991358</v>
+      </c>
+      <c r="M23">
+        <v>1.000947369983993</v>
+      </c>
+      <c r="N23">
+        <v>1.000947369983993</v>
+      </c>
+      <c r="O23">
+        <v>1.001107146278285</v>
+      </c>
+      <c r="P23">
+        <v>1.000434227045749</v>
+      </c>
+      <c r="Q23">
+        <v>1.000434227045749</v>
+      </c>
+      <c r="R23">
+        <v>1.000177655576627</v>
+      </c>
+      <c r="S23">
+        <v>1.000177655576627</v>
+      </c>
+      <c r="T23">
+        <v>1.000048242054443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9995672249145106</v>
+      </c>
+      <c r="D24">
+        <v>1.000379627028692</v>
+      </c>
+      <c r="E24">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="F24">
+        <v>0.9998261842488306</v>
+      </c>
+      <c r="G24">
+        <v>1.000703587174933</v>
+      </c>
+      <c r="H24">
+        <v>0.999835442414725</v>
+      </c>
+      <c r="I24">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="J24">
+        <v>1.000703587174933</v>
+      </c>
+      <c r="K24">
+        <v>0.9998036936522696</v>
+      </c>
+      <c r="L24">
+        <v>0.999835442414725</v>
+      </c>
+      <c r="M24">
+        <v>1.000269514794829</v>
+      </c>
+      <c r="N24">
+        <v>1.000269514794829</v>
+      </c>
+      <c r="O24">
+        <v>1.000306218872783</v>
+      </c>
+      <c r="P24">
+        <v>1.000114241080643</v>
+      </c>
+      <c r="Q24">
+        <v>1.000114241080643</v>
+      </c>
+      <c r="R24">
+        <v>1.000036604223549</v>
+      </c>
+      <c r="S24">
+        <v>1.000036604223549</v>
+      </c>
+      <c r="T24">
+        <v>1.000019293238994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.02790565648047</v>
+      </c>
+      <c r="D25">
+        <v>0.976658435536466</v>
+      </c>
+      <c r="E25">
+        <v>1.010945655415993</v>
+      </c>
+      <c r="F25">
+        <v>1.01062756216568</v>
+      </c>
+      <c r="G25">
+        <v>0.9573718856791662</v>
+      </c>
+      <c r="H25">
+        <v>1.010496688291482</v>
+      </c>
+      <c r="I25">
+        <v>1.010945655415993</v>
+      </c>
+      <c r="J25">
+        <v>0.9573718856791662</v>
+      </c>
+      <c r="K25">
+        <v>1.010945655415993</v>
+      </c>
+      <c r="L25">
+        <v>1.010496688291482</v>
+      </c>
+      <c r="M25">
+        <v>0.9839342869853241</v>
+      </c>
+      <c r="N25">
+        <v>0.9839342869853241</v>
+      </c>
+      <c r="O25">
+        <v>0.981509003169038</v>
+      </c>
+      <c r="P25">
+        <v>0.9929380764622139</v>
+      </c>
+      <c r="Q25">
+        <v>0.9929380764622139</v>
+      </c>
+      <c r="R25">
+        <v>0.9974399712006587</v>
+      </c>
+      <c r="S25">
+        <v>0.9974399712006587</v>
+      </c>
+      <c r="T25">
+        <v>0.9990009805948762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.007646391379899</v>
+      </c>
+      <c r="D26">
+        <v>0.993822800863833</v>
+      </c>
+      <c r="E26">
+        <v>1.002669980077599</v>
+      </c>
+      <c r="F26">
+        <v>1.002800518215534</v>
+      </c>
+      <c r="G26">
+        <v>0.9888462677653966</v>
+      </c>
+      <c r="H26">
+        <v>1.002854242666416</v>
+      </c>
+      <c r="I26">
+        <v>1.002669980077599</v>
+      </c>
+      <c r="J26">
+        <v>0.9888462677653966</v>
+      </c>
+      <c r="K26">
+        <v>1.002669980077599</v>
+      </c>
+      <c r="L26">
+        <v>1.002854242666416</v>
+      </c>
+      <c r="M26">
+        <v>0.9958502552159064</v>
+      </c>
+      <c r="N26">
+        <v>0.9958502552159064</v>
+      </c>
+      <c r="O26">
+        <v>0.9951744370985486</v>
+      </c>
+      <c r="P26">
+        <v>0.9981234968364707</v>
+      </c>
+      <c r="Q26">
+        <v>0.9981234968364707</v>
+      </c>
+      <c r="R26">
+        <v>0.9992601176467528</v>
+      </c>
+      <c r="S26">
+        <v>0.9992601176467528</v>
+      </c>
+      <c r="T26">
+        <v>0.999773366828113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9984012076914174</v>
+      </c>
+      <c r="D27">
+        <v>1.001317369611433</v>
+      </c>
+      <c r="E27">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="F27">
+        <v>0.9994013001718339</v>
+      </c>
+      <c r="G27">
+        <v>1.002394227615142</v>
+      </c>
+      <c r="H27">
+        <v>0.9994006193302135</v>
+      </c>
+      <c r="I27">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="J27">
+        <v>1.002394227615142</v>
+      </c>
+      <c r="K27">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="L27">
+        <v>0.9994006193302135</v>
+      </c>
+      <c r="M27">
+        <v>1.000897423472678</v>
+      </c>
+      <c r="N27">
+        <v>1.000897423472678</v>
+      </c>
+      <c r="O27">
+        <v>1.00103740551893</v>
+      </c>
+      <c r="P27">
+        <v>1.000399258944166</v>
+      </c>
+      <c r="Q27">
+        <v>1.000399258944166</v>
+      </c>
+      <c r="R27">
+        <v>1.00015017667991</v>
+      </c>
+      <c r="S27">
+        <v>1.00015017667991</v>
+      </c>
+      <c r="T27">
+        <v>1.00005294238453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.004700680088086</v>
+      </c>
+      <c r="D28">
+        <v>0.9961196812177329</v>
+      </c>
+      <c r="E28">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="F28">
+        <v>1.001763917544901</v>
+      </c>
+      <c r="G28">
+        <v>0.9929435378415681</v>
+      </c>
+      <c r="H28">
+        <v>1.00176297257391</v>
+      </c>
+      <c r="I28">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="J28">
+        <v>0.9929435378415681</v>
+      </c>
+      <c r="K28">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="L28">
+        <v>1.00176297257391</v>
+      </c>
+      <c r="M28">
+        <v>0.9973532552077389</v>
+      </c>
+      <c r="N28">
+        <v>0.9973532552077389</v>
+      </c>
+      <c r="O28">
+        <v>0.996942063877737</v>
+      </c>
+      <c r="P28">
+        <v>0.9988242243284846</v>
+      </c>
+      <c r="Q28">
+        <v>0.9988242243284846</v>
+      </c>
+      <c r="R28">
+        <v>0.9995597088888575</v>
+      </c>
+      <c r="S28">
+        <v>0.9995597088888575</v>
+      </c>
+      <c r="T28">
+        <v>0.999842825306029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00924929279912</v>
+      </c>
+      <c r="D29">
+        <v>0.9922849020236275</v>
+      </c>
+      <c r="E29">
+        <v>1.003595663354781</v>
+      </c>
+      <c r="F29">
+        <v>1.003511582729092</v>
+      </c>
+      <c r="G29">
+        <v>0.9859225968624905</v>
+      </c>
+      <c r="H29">
+        <v>1.003476949961498</v>
+      </c>
+      <c r="I29">
+        <v>1.003595663354781</v>
+      </c>
+      <c r="J29">
+        <v>0.9859225968624905</v>
+      </c>
+      <c r="K29">
+        <v>1.003595663354781</v>
+      </c>
+      <c r="L29">
+        <v>1.003476949961498</v>
+      </c>
+      <c r="M29">
+        <v>0.9946997734119943</v>
+      </c>
+      <c r="N29">
+        <v>0.9946997734119943</v>
+      </c>
+      <c r="O29">
+        <v>0.9938948162825388</v>
+      </c>
+      <c r="P29">
+        <v>0.9976650700595897</v>
+      </c>
+      <c r="Q29">
+        <v>0.9976650700595897</v>
+      </c>
+      <c r="R29">
+        <v>0.9991477183833875</v>
+      </c>
+      <c r="S29">
+        <v>0.9991477183833875</v>
+      </c>
+      <c r="T29">
+        <v>0.9996734979551013</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00991928244716</v>
+        <v>0.9960379850100208</v>
       </c>
       <c r="D4">
-        <v>0.991880581547167</v>
+        <v>1.00327950976598</v>
       </c>
       <c r="E4">
-        <v>1.003623360892389</v>
+        <v>0.998497906814332</v>
       </c>
       <c r="F4">
-        <v>1.003687083769817</v>
+        <v>0.9985087095132997</v>
       </c>
       <c r="G4">
-        <v>0.9852752705818766</v>
+        <v>1.005969166788636</v>
       </c>
       <c r="H4">
-        <v>1.003713308414594</v>
+        <v>0.9985131557551314</v>
       </c>
       <c r="I4">
-        <v>1.003623360892389</v>
+        <v>0.998497906814332</v>
       </c>
       <c r="J4">
-        <v>0.9852752705818766</v>
+        <v>1.005969166788636</v>
       </c>
       <c r="K4">
-        <v>1.003623360892389</v>
+        <v>0.998497906814332</v>
       </c>
       <c r="L4">
-        <v>1.003713308414594</v>
+        <v>0.9985131557551314</v>
       </c>
       <c r="M4">
-        <v>0.9944942894982353</v>
+        <v>1.002241161271884</v>
       </c>
       <c r="N4">
-        <v>0.9944942894982353</v>
+        <v>1.002241161271884</v>
       </c>
       <c r="O4">
-        <v>0.9936230535145457</v>
+        <v>1.002587277436582</v>
       </c>
       <c r="P4">
-        <v>0.9975373132962867</v>
+        <v>1.000993409786033</v>
       </c>
       <c r="Q4">
-        <v>0.9975373132962867</v>
+        <v>1.000993409786033</v>
       </c>
       <c r="R4">
-        <v>0.9990588251953124</v>
+        <v>1.000369534043108</v>
       </c>
       <c r="S4">
-        <v>0.9990588251953124</v>
+        <v>1.000369534043108</v>
       </c>
       <c r="T4">
-        <v>0.9996831479421674</v>
+        <v>1.0001344056079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9958665703314138</v>
+        <v>1.029652748850638</v>
       </c>
       <c r="D5">
-        <v>1.003415044711815</v>
+        <v>0.9753182860880483</v>
       </c>
       <c r="E5">
-        <v>0.9984424845893359</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="F5">
-        <v>0.9984474304178642</v>
+        <v>1.011231115806259</v>
       </c>
       <c r="G5">
-        <v>1.006212116801154</v>
+        <v>0.9549951027432287</v>
       </c>
       <c r="H5">
-        <v>0.9984494656628251</v>
+        <v>1.011141683921457</v>
       </c>
       <c r="I5">
-        <v>0.9984424845893359</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="J5">
-        <v>1.006212116801154</v>
+        <v>0.9549951027432287</v>
       </c>
       <c r="K5">
-        <v>0.9984424845893359</v>
+        <v>1.01144839052468</v>
       </c>
       <c r="L5">
-        <v>0.9984494656628251</v>
+        <v>1.011141683921457</v>
       </c>
       <c r="M5">
-        <v>1.002330791231989</v>
+        <v>0.9830683933323427</v>
       </c>
       <c r="N5">
-        <v>1.002330791231989</v>
+        <v>0.9830683933323427</v>
       </c>
       <c r="O5">
-        <v>1.002692209058598</v>
+        <v>0.9804850242509113</v>
       </c>
       <c r="P5">
-        <v>1.001034689017772</v>
+        <v>0.992528392396455</v>
       </c>
       <c r="Q5">
-        <v>1.001034689017771</v>
+        <v>0.992528392396455</v>
       </c>
       <c r="R5">
-        <v>1.000386637910663</v>
+        <v>0.9972583919285112</v>
       </c>
       <c r="S5">
-        <v>1.000386637910663</v>
+        <v>0.9972583919285112</v>
       </c>
       <c r="T5">
-        <v>1.000138852085735</v>
+        <v>0.9989645546557183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9847664181476675</v>
+        <v>1.00991928244716</v>
       </c>
       <c r="D6">
-        <v>1.012607177777642</v>
+        <v>0.991880581547167</v>
       </c>
       <c r="E6">
-        <v>0.9942279442817825</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="F6">
-        <v>0.9942672646115096</v>
+        <v>1.003687083769817</v>
       </c>
       <c r="G6">
-        <v>1.02294553821687</v>
+        <v>0.9852752705818766</v>
       </c>
       <c r="H6">
-        <v>0.9942834433010034</v>
+        <v>1.003713308414594</v>
       </c>
       <c r="I6">
-        <v>0.9942279442817825</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="J6">
-        <v>1.02294553821687</v>
+        <v>0.9852752705818766</v>
       </c>
       <c r="K6">
-        <v>0.9942279442817825</v>
+        <v>1.003623360892389</v>
       </c>
       <c r="L6">
-        <v>0.9942834433010034</v>
+        <v>1.003713308414594</v>
       </c>
       <c r="M6">
-        <v>1.008614490758936</v>
+        <v>0.9944942894982353</v>
       </c>
       <c r="N6">
-        <v>1.008614490758936</v>
+        <v>0.9944942894982353</v>
       </c>
       <c r="O6">
-        <v>1.009945386431838</v>
+        <v>0.9936230535145457</v>
       </c>
       <c r="P6">
-        <v>1.003818975266552</v>
+        <v>0.9975373132962867</v>
       </c>
       <c r="Q6">
-        <v>1.003818975266552</v>
+        <v>0.9975373132962867</v>
       </c>
       <c r="R6">
-        <v>1.00142121752036</v>
+        <v>0.9990588251953124</v>
       </c>
       <c r="S6">
-        <v>1.00142121752036</v>
+        <v>0.9990588251953124</v>
       </c>
       <c r="T6">
-        <v>1.000516297722746</v>
+        <v>0.9996831479421674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996484827296056</v>
+        <v>0.9958665703314138</v>
       </c>
       <c r="D7">
-        <v>1.000286648920484</v>
+        <v>1.003415044711815</v>
       </c>
       <c r="E7">
-        <v>0.9998732315656935</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="F7">
-        <v>0.9998698923201698</v>
+        <v>0.9984474304178642</v>
       </c>
       <c r="G7">
-        <v>1.000519199594043</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="H7">
-        <v>0.9998685185352594</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="I7">
-        <v>0.9998732315656935</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="J7">
-        <v>1.000519199594043</v>
+        <v>1.006212116801154</v>
       </c>
       <c r="K7">
-        <v>0.9998732315656935</v>
+        <v>0.9984424845893359</v>
       </c>
       <c r="L7">
-        <v>0.9998685185352594</v>
+        <v>0.9984494656628251</v>
       </c>
       <c r="M7">
-        <v>1.000193859064651</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="N7">
-        <v>1.000193859064651</v>
+        <v>1.002330791231989</v>
       </c>
       <c r="O7">
-        <v>1.000224789016595</v>
+        <v>1.002692209058598</v>
       </c>
       <c r="P7">
-        <v>1.000086983231665</v>
+        <v>1.001034689017772</v>
       </c>
       <c r="Q7">
-        <v>1.000086983231665</v>
+        <v>1.001034689017771</v>
       </c>
       <c r="R7">
-        <v>1.000033545315172</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="S7">
-        <v>1.000033545315172</v>
+        <v>1.000386637910663</v>
       </c>
       <c r="T7">
-        <v>1.000010995610876</v>
+        <v>1.000138852085735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999599147259965</v>
+        <v>0.9847664181476675</v>
       </c>
       <c r="D8">
-        <v>1.000031345648932</v>
+        <v>1.012607177777642</v>
       </c>
       <c r="E8">
-        <v>0.9999875669404142</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="F8">
-        <v>0.9999858489540983</v>
+        <v>0.9942672646115096</v>
       </c>
       <c r="G8">
-        <v>1.000055974196975</v>
+        <v>1.02294553821687</v>
       </c>
       <c r="H8">
-        <v>0.9999851420782735</v>
+        <v>0.9942834433010034</v>
       </c>
       <c r="I8">
-        <v>0.9999875669404142</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="J8">
-        <v>1.000055974196975</v>
+        <v>1.02294553821687</v>
       </c>
       <c r="K8">
-        <v>0.9999875669404142</v>
+        <v>0.9942279442817825</v>
       </c>
       <c r="L8">
-        <v>0.9999851420782735</v>
+        <v>0.9942834433010034</v>
       </c>
       <c r="M8">
-        <v>1.000020558137624</v>
+        <v>1.008614490758936</v>
       </c>
       <c r="N8">
-        <v>1.000020558137624</v>
+        <v>1.008614490758936</v>
       </c>
       <c r="O8">
-        <v>1.000024153974727</v>
+        <v>1.009945386431838</v>
       </c>
       <c r="P8">
-        <v>1.000009561071888</v>
+        <v>1.003818975266552</v>
       </c>
       <c r="Q8">
-        <v>1.000009561071888</v>
+        <v>1.003818975266552</v>
       </c>
       <c r="R8">
-        <v>1.000004062539019</v>
+        <v>1.00142121752036</v>
       </c>
       <c r="S8">
-        <v>1.000004062539019</v>
+        <v>1.00142121752036</v>
       </c>
       <c r="T8">
-        <v>1.000000965424115</v>
+        <v>1.000516297722746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9991572253540326</v>
+        <v>0.9996484827296056</v>
       </c>
       <c r="D9">
-        <v>1.000693266117362</v>
+        <v>1.000286648920484</v>
       </c>
       <c r="E9">
-        <v>0.9996870061908255</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="F9">
-        <v>0.9996849935006176</v>
+        <v>0.9998698923201698</v>
       </c>
       <c r="G9">
-        <v>1.001259290310473</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="H9">
-        <v>0.9996841637442594</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="I9">
-        <v>0.9996870061908255</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="J9">
-        <v>1.001259290310473</v>
+        <v>1.000519199594043</v>
       </c>
       <c r="K9">
-        <v>0.9996870061908255</v>
+        <v>0.9998732315656935</v>
       </c>
       <c r="L9">
-        <v>0.9996841637442594</v>
+        <v>0.9998685185352594</v>
       </c>
       <c r="M9">
-        <v>1.000471727027366</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="N9">
-        <v>1.000471727027366</v>
+        <v>1.000193859064651</v>
       </c>
       <c r="O9">
-        <v>1.000545573390698</v>
+        <v>1.000224789016595</v>
       </c>
       <c r="P9">
-        <v>1.000210153415186</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="Q9">
-        <v>1.000210153415186</v>
+        <v>1.000086983231665</v>
       </c>
       <c r="R9">
-        <v>1.000079366609096</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="S9">
-        <v>1.000079366609096</v>
+        <v>1.000033545315172</v>
       </c>
       <c r="T9">
-        <v>1.000027657536261</v>
+        <v>1.000010995610876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9845396778302372</v>
+        <v>0.9999599147259965</v>
       </c>
       <c r="D10">
-        <v>1.012795472200757</v>
+        <v>1.000031345648932</v>
       </c>
       <c r="E10">
-        <v>0.9941410573206421</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="F10">
-        <v>0.9941816065867213</v>
+        <v>0.9999858489540983</v>
       </c>
       <c r="G10">
-        <v>1.023288622792587</v>
+        <v>1.000055974196975</v>
       </c>
       <c r="H10">
-        <v>0.994198291602584</v>
+        <v>0.9999851420782735</v>
       </c>
       <c r="I10">
-        <v>0.9941410573206421</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="J10">
-        <v>1.023288622792587</v>
+        <v>1.000055974196975</v>
       </c>
       <c r="K10">
-        <v>0.9941410573206421</v>
+        <v>0.9999875669404142</v>
       </c>
       <c r="L10">
-        <v>0.994198291602584</v>
+        <v>0.9999851420782735</v>
       </c>
       <c r="M10">
-        <v>1.008743457197586</v>
+        <v>1.000020558137624</v>
       </c>
       <c r="N10">
-        <v>1.008743457197586</v>
+        <v>1.000020558137624</v>
       </c>
       <c r="O10">
-        <v>1.01009412886531</v>
+        <v>1.000024153974727</v>
       </c>
       <c r="P10">
-        <v>1.003875990571938</v>
+        <v>1.000009561071888</v>
       </c>
       <c r="Q10">
-        <v>1.003875990571938</v>
+        <v>1.000009561071888</v>
       </c>
       <c r="R10">
-        <v>1.001442257259114</v>
+        <v>1.000004062539019</v>
       </c>
       <c r="S10">
-        <v>1.001442257259114</v>
+        <v>1.000004062539019</v>
       </c>
       <c r="T10">
-        <v>1.000524121388922</v>
+        <v>1.000000965424115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.007900555212038</v>
+        <v>0.9991572253540326</v>
       </c>
       <c r="D11">
-        <v>0.9935301510974722</v>
+        <v>1.000693266117362</v>
       </c>
       <c r="E11">
-        <v>1.002890255238211</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="F11">
-        <v>1.002938163402078</v>
+        <v>0.9996849935006176</v>
       </c>
       <c r="G11">
-        <v>0.9882650956178629</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="H11">
-        <v>1.00295788012761</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="I11">
-        <v>1.002890255238211</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="J11">
-        <v>0.9882650956178629</v>
+        <v>1.001259290310473</v>
       </c>
       <c r="K11">
-        <v>1.002890255238211</v>
+        <v>0.9996870061908255</v>
       </c>
       <c r="L11">
-        <v>1.00295788012761</v>
+        <v>0.9996841637442594</v>
       </c>
       <c r="M11">
-        <v>0.9956114878727366</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="N11">
-        <v>0.9956114878727366</v>
+        <v>1.000471727027366</v>
       </c>
       <c r="O11">
-        <v>0.9949177089476485</v>
+        <v>1.000545573390698</v>
       </c>
       <c r="P11">
-        <v>0.9980377436612281</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="Q11">
-        <v>0.9980377436612281</v>
+        <v>1.000210153415186</v>
       </c>
       <c r="R11">
-        <v>0.9992508715554738</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="S11">
-        <v>0.9992508715554738</v>
+        <v>1.000079366609096</v>
       </c>
       <c r="T11">
-        <v>0.9997470167825454</v>
+        <v>1.000027657536261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9956923018736854</v>
+        <v>0.9845396778302372</v>
       </c>
       <c r="D12">
-        <v>1.003563986357894</v>
+        <v>1.012795472200757</v>
       </c>
       <c r="E12">
-        <v>0.9983693451894714</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="F12">
-        <v>0.9983794404210509</v>
+        <v>0.9941816065867213</v>
       </c>
       <c r="G12">
-        <v>1.006485980736842</v>
+        <v>1.023288622792587</v>
       </c>
       <c r="H12">
-        <v>0.9983835955157899</v>
+        <v>0.994198291602584</v>
       </c>
       <c r="I12">
-        <v>0.9983693451894714</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="J12">
-        <v>1.006485980736842</v>
+        <v>1.023288622792587</v>
       </c>
       <c r="K12">
-        <v>0.9983693451894714</v>
+        <v>0.9941410573206421</v>
       </c>
       <c r="L12">
-        <v>0.9983835955157899</v>
+        <v>0.994198291602584</v>
       </c>
       <c r="M12">
-        <v>1.002434788126316</v>
+        <v>1.008743457197586</v>
       </c>
       <c r="N12">
-        <v>1.002434788126316</v>
+        <v>1.008743457197586</v>
       </c>
       <c r="O12">
-        <v>1.002811187536842</v>
+        <v>1.01009412886531</v>
       </c>
       <c r="P12">
-        <v>1.001079640480701</v>
+        <v>1.003875990571938</v>
       </c>
       <c r="Q12">
-        <v>1.001079640480701</v>
+        <v>1.003875990571938</v>
       </c>
       <c r="R12">
-        <v>1.000402066657894</v>
+        <v>1.001442257259114</v>
       </c>
       <c r="S12">
-        <v>1.000402066657894</v>
+        <v>1.001442257259114</v>
       </c>
       <c r="T12">
-        <v>1.000145775015789</v>
+        <v>1.000524121388922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00305080900136</v>
+        <v>1.007900555212038</v>
       </c>
       <c r="D13">
-        <v>0.9974837779374079</v>
+        <v>0.9935301510974722</v>
       </c>
       <c r="E13">
-        <v>1.001143004710548</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="F13">
-        <v>1.001143696648352</v>
+        <v>1.002938163402078</v>
       </c>
       <c r="G13">
-        <v>0.9954254655794565</v>
+        <v>0.9882650956178629</v>
       </c>
       <c r="H13">
-        <v>1.001143984285609</v>
+        <v>1.00295788012761</v>
       </c>
       <c r="I13">
-        <v>1.001143004710548</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="J13">
-        <v>0.9954254655794565</v>
+        <v>0.9882650956178629</v>
       </c>
       <c r="K13">
-        <v>1.001143004710548</v>
+        <v>1.002890255238211</v>
       </c>
       <c r="L13">
-        <v>1.001143984285609</v>
+        <v>1.00295788012761</v>
       </c>
       <c r="M13">
-        <v>0.9982847249325328</v>
+        <v>0.9956114878727366</v>
       </c>
       <c r="N13">
-        <v>0.9982847249325328</v>
+        <v>0.9956114878727366</v>
       </c>
       <c r="O13">
-        <v>0.9980177426008247</v>
+        <v>0.9949177089476485</v>
       </c>
       <c r="P13">
-        <v>0.9992374848585378</v>
+        <v>0.9980377436612281</v>
       </c>
       <c r="Q13">
-        <v>0.9992374848585378</v>
+        <v>0.9980377436612281</v>
       </c>
       <c r="R13">
-        <v>0.9997138648215403</v>
+        <v>0.9992508715554738</v>
       </c>
       <c r="S13">
-        <v>0.9997138648215403</v>
+        <v>0.9992508715554738</v>
       </c>
       <c r="T13">
-        <v>0.9998984563604555</v>
+        <v>0.9997470167825454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9732909399999987</v>
+        <v>0.9956923018736854</v>
       </c>
       <c r="D14">
-        <v>1.022106899999999</v>
+        <v>1.003563986357894</v>
       </c>
       <c r="E14">
-        <v>0.9898757500000008</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="F14">
-        <v>0.9899473999999997</v>
+        <v>0.9983794404210509</v>
       </c>
       <c r="G14">
-        <v>1.040237</v>
+        <v>1.006485980736842</v>
       </c>
       <c r="H14">
-        <v>0.9899768800000001</v>
+        <v>0.9983835955157899</v>
       </c>
       <c r="I14">
-        <v>0.9898757500000008</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="J14">
-        <v>1.040237</v>
+        <v>1.006485980736842</v>
       </c>
       <c r="K14">
-        <v>0.9898757500000008</v>
+        <v>0.9983693451894714</v>
       </c>
       <c r="L14">
-        <v>0.9899768800000001</v>
+        <v>0.9983835955157899</v>
       </c>
       <c r="M14">
-        <v>1.01510694</v>
+        <v>1.002434788126316</v>
       </c>
       <c r="N14">
-        <v>1.01510694</v>
+        <v>1.002434788126316</v>
       </c>
       <c r="O14">
-        <v>1.01744026</v>
+        <v>1.002811187536842</v>
       </c>
       <c r="P14">
-        <v>1.006696543333333</v>
+        <v>1.001079640480701</v>
       </c>
       <c r="Q14">
-        <v>1.006696543333333</v>
+        <v>1.001079640480701</v>
       </c>
       <c r="R14">
-        <v>1.002491345</v>
+        <v>1.000402066657894</v>
       </c>
       <c r="S14">
-        <v>1.002491345</v>
+        <v>1.000402066657894</v>
       </c>
       <c r="T14">
-        <v>1.000905811666666</v>
+        <v>1.000145775015789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0301398</v>
+        <v>1.00305080900136</v>
       </c>
       <c r="D15">
-        <v>0.9742505199999999</v>
+        <v>0.9974837779374079</v>
       </c>
       <c r="E15">
-        <v>1.012634</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="F15">
-        <v>1.0117535</v>
+        <v>1.001143696648352</v>
       </c>
       <c r="G15">
-        <v>0.9526597999999999</v>
+        <v>0.9954254655794565</v>
       </c>
       <c r="H15">
-        <v>1.0113912</v>
+        <v>1.001143984285609</v>
       </c>
       <c r="I15">
-        <v>1.012634</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="J15">
-        <v>0.9526597999999999</v>
+        <v>0.9954254655794565</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>1.001143004710548</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>1.001143984285609</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>0.9982847249325328</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>0.9982847249325328</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>0.9980177426008247</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>0.9992374848585378</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>0.9992374848585378</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>0.9997138648215403</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>0.9997138648215403</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>0.9998984563604555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0731527</v>
+        <v>0.9732909399999987</v>
       </c>
       <c r="D16">
-        <v>0.9402993399999999</v>
+        <v>1.022106899999999</v>
       </c>
       <c r="E16">
-        <v>1.0264528</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="F16">
-        <v>1.0271005</v>
+        <v>0.9899473999999997</v>
       </c>
       <c r="G16">
-        <v>0.89183799</v>
+        <v>1.040237</v>
       </c>
       <c r="H16">
-        <v>1.027367</v>
+        <v>0.9899768800000001</v>
       </c>
       <c r="I16">
-        <v>1.0264528</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="J16">
-        <v>0.89183799</v>
+        <v>1.040237</v>
       </c>
       <c r="K16">
-        <v>1.0264528</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="L16">
-        <v>1.027367</v>
+        <v>0.9899768800000001</v>
       </c>
       <c r="M16">
-        <v>0.9596024949999999</v>
+        <v>1.01510694</v>
       </c>
       <c r="N16">
-        <v>0.9596024949999999</v>
+        <v>1.01510694</v>
       </c>
       <c r="O16">
-        <v>0.95316811</v>
+        <v>1.01744026</v>
       </c>
       <c r="P16">
-        <v>0.9818859299999999</v>
+        <v>1.006696543333333</v>
       </c>
       <c r="Q16">
-        <v>0.9818859299999999</v>
+        <v>1.006696543333333</v>
       </c>
       <c r="R16">
-        <v>0.9930276474999999</v>
+        <v>1.002491345</v>
       </c>
       <c r="S16">
-        <v>0.9930276474999999</v>
+        <v>1.002491345</v>
       </c>
       <c r="T16">
-        <v>0.9977017216666665</v>
+        <v>1.000905811666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0306177</v>
+        <v>1.0301398</v>
       </c>
       <c r="D17">
-        <v>0.97447203</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E17">
-        <v>1.0118858</v>
+        <v>1.012634</v>
       </c>
       <c r="F17">
-        <v>1.0116186</v>
+        <v>1.0117535</v>
       </c>
       <c r="G17">
-        <v>0.9534268</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H17">
-        <v>1.0115086</v>
+        <v>1.0113912</v>
       </c>
       <c r="I17">
-        <v>1.0118858</v>
+        <v>1.012634</v>
       </c>
       <c r="J17">
-        <v>0.9534268</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K17">
-        <v>1.0118858</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0115086</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.9824676999999999</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.9824676999999999</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.9798024766666668</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.9922737333333332</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.9922737333333332</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.9971767499999999</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.9971767499999999</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.9989215883333333</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9904771846575346</v>
+        <v>1.0731527</v>
       </c>
       <c r="D18">
-        <v>1.007822036712329</v>
+        <v>0.9402993399999999</v>
       </c>
       <c r="E18">
-        <v>0.9964805846575342</v>
+        <v>1.0264528</v>
       </c>
       <c r="F18">
-        <v>0.996446444109589</v>
+        <v>1.0271005</v>
       </c>
       <c r="G18">
-        <v>1.014201601917808</v>
+        <v>0.89183799</v>
       </c>
       <c r="H18">
-        <v>0.9964323868493153</v>
+        <v>1.027367</v>
       </c>
       <c r="I18">
-        <v>0.9964805846575342</v>
+        <v>1.0264528</v>
       </c>
       <c r="J18">
-        <v>1.014201601917808</v>
+        <v>0.89183799</v>
       </c>
       <c r="K18">
-        <v>0.9964805846575342</v>
+        <v>1.0264528</v>
       </c>
       <c r="L18">
-        <v>0.9964323868493153</v>
+        <v>1.027367</v>
       </c>
       <c r="M18">
-        <v>1.005316994383562</v>
+        <v>0.9596024949999999</v>
       </c>
       <c r="N18">
-        <v>1.005316994383562</v>
+        <v>0.9596024949999999</v>
       </c>
       <c r="O18">
-        <v>1.006152008493151</v>
+        <v>0.95316811</v>
       </c>
       <c r="P18">
-        <v>1.002371524474886</v>
+        <v>0.9818859299999999</v>
       </c>
       <c r="Q18">
-        <v>1.002371524474886</v>
+        <v>0.9818859299999999</v>
       </c>
       <c r="R18">
-        <v>1.000898789520548</v>
+        <v>0.9930276474999999</v>
       </c>
       <c r="S18">
-        <v>1.000898789520548</v>
+        <v>0.9930276474999999</v>
       </c>
       <c r="T18">
-        <v>1.000310039817352</v>
+        <v>0.9977017216666665</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.012602551052632</v>
+        <v>1.0306177</v>
       </c>
       <c r="D19">
-        <v>0.9898836663157894</v>
+        <v>0.97447203</v>
       </c>
       <c r="E19">
-        <v>1.004303105789474</v>
+        <v>1.0118858</v>
       </c>
       <c r="F19">
-        <v>1.004582716315789</v>
+        <v>1.0116186</v>
       </c>
       <c r="G19">
-        <v>0.9817727205263155</v>
+        <v>0.9534268</v>
       </c>
       <c r="H19">
-        <v>1.004697773157895</v>
+        <v>1.0115086</v>
       </c>
       <c r="I19">
-        <v>1.004303105789474</v>
+        <v>1.0118858</v>
       </c>
       <c r="J19">
-        <v>0.9817727205263155</v>
+        <v>0.9534268</v>
       </c>
       <c r="K19">
-        <v>1.004303105789474</v>
+        <v>1.0118858</v>
       </c>
       <c r="L19">
-        <v>1.004697773157895</v>
+        <v>1.0115086</v>
       </c>
       <c r="M19">
-        <v>0.9932352468421051</v>
+        <v>0.9824676999999999</v>
       </c>
       <c r="N19">
-        <v>0.9932352468421051</v>
+        <v>0.9824676999999999</v>
       </c>
       <c r="O19">
-        <v>0.9921180533333332</v>
+        <v>0.9798024766666668</v>
       </c>
       <c r="P19">
-        <v>0.9969245331578946</v>
+        <v>0.9922737333333332</v>
       </c>
       <c r="Q19">
-        <v>0.9969245331578946</v>
+        <v>0.9922737333333332</v>
       </c>
       <c r="R19">
-        <v>0.9987691763157894</v>
+        <v>0.9971767499999999</v>
       </c>
       <c r="S19">
-        <v>0.9987691763157894</v>
+        <v>0.9971767499999999</v>
       </c>
       <c r="T19">
-        <v>0.9996404221929825</v>
+        <v>0.9989215883333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.025583883157895</v>
+        <v>0.9904771846575346</v>
       </c>
       <c r="D20">
-        <v>0.9786793852631579</v>
+        <v>1.007822036712329</v>
       </c>
       <c r="E20">
-        <v>1.009916111578948</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="F20">
-        <v>1.009703103157895</v>
+        <v>0.996446444109589</v>
       </c>
       <c r="G20">
-        <v>0.9611087315789472</v>
+        <v>1.014201601917808</v>
       </c>
       <c r="H20">
-        <v>1.009615429473684</v>
+        <v>0.9964323868493153</v>
       </c>
       <c r="I20">
-        <v>1.009916111578948</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="J20">
-        <v>0.9611087315789472</v>
+        <v>1.014201601917808</v>
       </c>
       <c r="K20">
-        <v>1.009916111578948</v>
+        <v>0.9964805846575342</v>
       </c>
       <c r="L20">
-        <v>1.009615429473684</v>
+        <v>0.9964323868493153</v>
       </c>
       <c r="M20">
-        <v>0.9853620805263157</v>
+        <v>1.005316994383562</v>
       </c>
       <c r="N20">
-        <v>0.9853620805263157</v>
+        <v>1.005316994383562</v>
       </c>
       <c r="O20">
-        <v>0.9831345154385964</v>
+        <v>1.006152008493151</v>
       </c>
       <c r="P20">
-        <v>0.9935467575438596</v>
+        <v>1.002371524474886</v>
       </c>
       <c r="Q20">
-        <v>0.9935467575438596</v>
+        <v>1.002371524474886</v>
       </c>
       <c r="R20">
-        <v>0.9976390960526316</v>
+        <v>1.000898789520548</v>
       </c>
       <c r="S20">
-        <v>0.9976390960526316</v>
+        <v>1.000898789520548</v>
       </c>
       <c r="T20">
-        <v>0.9991011073684209</v>
+        <v>1.000310039817352</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9896502829154836</v>
+        <v>1.012602551052632</v>
       </c>
       <c r="D21">
-        <v>1.008898876915657</v>
+        <v>0.9898836663157894</v>
       </c>
       <c r="E21">
-        <v>0.9955761297980881</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="F21">
-        <v>0.9959349935923743</v>
+        <v>1.004582716315789</v>
       </c>
       <c r="G21">
-        <v>1.016392937007566</v>
+        <v>0.9817727205263155</v>
       </c>
       <c r="H21">
-        <v>0.9960826735632273</v>
+        <v>1.004697773157895</v>
       </c>
       <c r="I21">
-        <v>0.9955761297980881</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="J21">
-        <v>1.016392937007566</v>
+        <v>0.9817727205263155</v>
       </c>
       <c r="K21">
-        <v>0.9955761297980881</v>
+        <v>1.004303105789474</v>
       </c>
       <c r="L21">
-        <v>0.9960826735632273</v>
+        <v>1.004697773157895</v>
       </c>
       <c r="M21">
-        <v>1.006237805285397</v>
+        <v>0.9932352468421051</v>
       </c>
       <c r="N21">
-        <v>1.006237805285397</v>
+        <v>0.9932352468421051</v>
       </c>
       <c r="O21">
-        <v>1.00712482916215</v>
+        <v>0.9921180533333332</v>
       </c>
       <c r="P21">
-        <v>1.002683913456294</v>
+        <v>0.9969245331578946</v>
       </c>
       <c r="Q21">
-        <v>1.002683913456294</v>
+        <v>0.9969245331578946</v>
       </c>
       <c r="R21">
-        <v>1.000906967541742</v>
+        <v>0.9987691763157894</v>
       </c>
       <c r="S21">
-        <v>1.000906967541742</v>
+        <v>0.9987691763157894</v>
       </c>
       <c r="T21">
-        <v>1.000422648965399</v>
+        <v>0.9996404221929825</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9968784428149133</v>
+        <v>1.025583883157895</v>
       </c>
       <c r="D22">
-        <v>1.002427378172071</v>
+        <v>0.9786793852631579</v>
       </c>
       <c r="E22">
-        <v>0.9990521781334182</v>
+        <v>1.009916111578948</v>
       </c>
       <c r="F22">
-        <v>0.9989048862401907</v>
+        <v>1.009703103157895</v>
       </c>
       <c r="G22">
-        <v>1.00432592511089</v>
+        <v>0.9611087315789472</v>
       </c>
       <c r="H22">
-        <v>0.9988442654986501</v>
+        <v>1.009615429473684</v>
       </c>
       <c r="I22">
-        <v>0.9990521781334182</v>
+        <v>1.009916111578948</v>
       </c>
       <c r="J22">
-        <v>1.00432592511089</v>
+        <v>0.9611087315789472</v>
       </c>
       <c r="K22">
-        <v>0.9990521781334182</v>
+        <v>1.009916111578948</v>
       </c>
       <c r="L22">
-        <v>0.9988442654986501</v>
+        <v>1.009615429473684</v>
       </c>
       <c r="M22">
-        <v>1.00158509530477</v>
+        <v>0.9853620805263157</v>
       </c>
       <c r="N22">
-        <v>1.00158509530477</v>
+        <v>0.9853620805263157</v>
       </c>
       <c r="O22">
-        <v>1.001865856260537</v>
+        <v>0.9831345154385964</v>
       </c>
       <c r="P22">
-        <v>1.000740789580986</v>
+        <v>0.9935467575438596</v>
       </c>
       <c r="Q22">
-        <v>1.000740789580986</v>
+        <v>0.9935467575438596</v>
       </c>
       <c r="R22">
-        <v>1.000318636719094</v>
+        <v>0.9976390960526316</v>
       </c>
       <c r="S22">
-        <v>1.000318636719094</v>
+        <v>0.9976390960526316</v>
       </c>
       <c r="T22">
-        <v>1.000072179328356</v>
+        <v>0.9991011073684209</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9982055897701504</v>
+        <v>0.9896502829154836</v>
       </c>
       <c r="D23">
-        <v>1.001426698866869</v>
+        <v>1.008898876915657</v>
       </c>
       <c r="E23">
-        <v>0.9994079411692615</v>
+        <v>0.9955761297980881</v>
       </c>
       <c r="F23">
-        <v>0.9993544825523902</v>
+        <v>0.9959349935923743</v>
       </c>
       <c r="G23">
-        <v>1.002562255068849</v>
+        <v>1.016392937007566</v>
       </c>
       <c r="H23">
-        <v>0.9993324848991358</v>
+        <v>0.9960826735632273</v>
       </c>
       <c r="I23">
-        <v>0.9994079411692615</v>
+        <v>0.9955761297980881</v>
       </c>
       <c r="J23">
-        <v>1.002562255068849</v>
+        <v>1.016392937007566</v>
       </c>
       <c r="K23">
-        <v>0.9994079411692615</v>
+        <v>0.9955761297980881</v>
       </c>
       <c r="L23">
-        <v>0.9993324848991358</v>
+        <v>0.9960826735632273</v>
       </c>
       <c r="M23">
-        <v>1.000947369983993</v>
+        <v>1.006237805285397</v>
       </c>
       <c r="N23">
-        <v>1.000947369983993</v>
+        <v>1.006237805285397</v>
       </c>
       <c r="O23">
-        <v>1.001107146278285</v>
+        <v>1.00712482916215</v>
       </c>
       <c r="P23">
-        <v>1.000434227045749</v>
+        <v>1.002683913456294</v>
       </c>
       <c r="Q23">
-        <v>1.000434227045749</v>
+        <v>1.002683913456294</v>
       </c>
       <c r="R23">
-        <v>1.000177655576627</v>
+        <v>1.000906967541742</v>
       </c>
       <c r="S23">
-        <v>1.000177655576627</v>
+        <v>1.000906967541742</v>
       </c>
       <c r="T23">
-        <v>1.000048242054443</v>
+        <v>1.000422648965399</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9995672249145106</v>
+        <v>0.9968784428149133</v>
       </c>
       <c r="D24">
-        <v>1.000379627028692</v>
+        <v>1.002427378172071</v>
       </c>
       <c r="E24">
-        <v>0.9998036936522696</v>
+        <v>0.9990521781334182</v>
       </c>
       <c r="F24">
-        <v>0.9998261842488306</v>
+        <v>0.9989048862401907</v>
       </c>
       <c r="G24">
-        <v>1.000703587174933</v>
+        <v>1.00432592511089</v>
       </c>
       <c r="H24">
-        <v>0.999835442414725</v>
+        <v>0.9988442654986501</v>
       </c>
       <c r="I24">
-        <v>0.9998036936522696</v>
+        <v>0.9990521781334182</v>
       </c>
       <c r="J24">
-        <v>1.000703587174933</v>
+        <v>1.00432592511089</v>
       </c>
       <c r="K24">
-        <v>0.9998036936522696</v>
+        <v>0.9990521781334182</v>
       </c>
       <c r="L24">
-        <v>0.999835442414725</v>
+        <v>0.9988442654986501</v>
       </c>
       <c r="M24">
-        <v>1.000269514794829</v>
+        <v>1.00158509530477</v>
       </c>
       <c r="N24">
-        <v>1.000269514794829</v>
+        <v>1.00158509530477</v>
       </c>
       <c r="O24">
-        <v>1.000306218872783</v>
+        <v>1.001865856260537</v>
       </c>
       <c r="P24">
-        <v>1.000114241080643</v>
+        <v>1.000740789580986</v>
       </c>
       <c r="Q24">
-        <v>1.000114241080643</v>
+        <v>1.000740789580986</v>
       </c>
       <c r="R24">
-        <v>1.000036604223549</v>
+        <v>1.000318636719094</v>
       </c>
       <c r="S24">
-        <v>1.000036604223549</v>
+        <v>1.000318636719094</v>
       </c>
       <c r="T24">
-        <v>1.000019293238994</v>
+        <v>1.000072179328356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.02790565648047</v>
+        <v>0.9982055897701504</v>
       </c>
       <c r="D25">
-        <v>0.976658435536466</v>
+        <v>1.001426698866869</v>
       </c>
       <c r="E25">
-        <v>1.010945655415993</v>
+        <v>0.9994079411692615</v>
       </c>
       <c r="F25">
-        <v>1.01062756216568</v>
+        <v>0.9993544825523902</v>
       </c>
       <c r="G25">
-        <v>0.9573718856791662</v>
+        <v>1.002562255068849</v>
       </c>
       <c r="H25">
-        <v>1.010496688291482</v>
+        <v>0.9993324848991358</v>
       </c>
       <c r="I25">
-        <v>1.010945655415993</v>
+        <v>0.9994079411692615</v>
       </c>
       <c r="J25">
-        <v>0.9573718856791662</v>
+        <v>1.002562255068849</v>
       </c>
       <c r="K25">
-        <v>1.010945655415993</v>
+        <v>0.9994079411692615</v>
       </c>
       <c r="L25">
-        <v>1.010496688291482</v>
+        <v>0.9993324848991358</v>
       </c>
       <c r="M25">
-        <v>0.9839342869853241</v>
+        <v>1.000947369983993</v>
       </c>
       <c r="N25">
-        <v>0.9839342869853241</v>
+        <v>1.000947369983993</v>
       </c>
       <c r="O25">
-        <v>0.981509003169038</v>
+        <v>1.001107146278285</v>
       </c>
       <c r="P25">
-        <v>0.9929380764622139</v>
+        <v>1.000434227045749</v>
       </c>
       <c r="Q25">
-        <v>0.9929380764622139</v>
+        <v>1.000434227045749</v>
       </c>
       <c r="R25">
-        <v>0.9974399712006587</v>
+        <v>1.000177655576627</v>
       </c>
       <c r="S25">
-        <v>0.9974399712006587</v>
+        <v>1.000177655576627</v>
       </c>
       <c r="T25">
-        <v>0.9990009805948762</v>
+        <v>1.000048242054443</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.007646391379899</v>
+        <v>0.9995672249145106</v>
       </c>
       <c r="D26">
-        <v>0.993822800863833</v>
+        <v>1.000379627028692</v>
       </c>
       <c r="E26">
-        <v>1.002669980077599</v>
+        <v>0.9998036936522696</v>
       </c>
       <c r="F26">
-        <v>1.002800518215534</v>
+        <v>0.9998261842488306</v>
       </c>
       <c r="G26">
-        <v>0.9888462677653966</v>
+        <v>1.000703587174933</v>
       </c>
       <c r="H26">
-        <v>1.002854242666416</v>
+        <v>0.999835442414725</v>
       </c>
       <c r="I26">
-        <v>1.002669980077599</v>
+        <v>0.9998036936522696</v>
       </c>
       <c r="J26">
-        <v>0.9888462677653966</v>
+        <v>1.000703587174933</v>
       </c>
       <c r="K26">
-        <v>1.002669980077599</v>
+        <v>0.9998036936522696</v>
       </c>
       <c r="L26">
-        <v>1.002854242666416</v>
+        <v>0.999835442414725</v>
       </c>
       <c r="M26">
-        <v>0.9958502552159064</v>
+        <v>1.000269514794829</v>
       </c>
       <c r="N26">
-        <v>0.9958502552159064</v>
+        <v>1.000269514794829</v>
       </c>
       <c r="O26">
-        <v>0.9951744370985486</v>
+        <v>1.000306218872783</v>
       </c>
       <c r="P26">
-        <v>0.9981234968364707</v>
+        <v>1.000114241080643</v>
       </c>
       <c r="Q26">
-        <v>0.9981234968364707</v>
+        <v>1.000114241080643</v>
       </c>
       <c r="R26">
-        <v>0.9992601176467528</v>
+        <v>1.000036604223549</v>
       </c>
       <c r="S26">
-        <v>0.9992601176467528</v>
+        <v>1.000036604223549</v>
       </c>
       <c r="T26">
-        <v>0.999773366828113</v>
+        <v>1.000019293238994</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9984012076914174</v>
+        <v>1.02790565648047</v>
       </c>
       <c r="D27">
-        <v>1.001317369611433</v>
+        <v>0.976658435536466</v>
       </c>
       <c r="E27">
-        <v>0.9994029298871423</v>
+        <v>1.010945655415993</v>
       </c>
       <c r="F27">
-        <v>0.9994013001718339</v>
+        <v>1.01062756216568</v>
       </c>
       <c r="G27">
-        <v>1.002394227615142</v>
+        <v>0.9573718856791662</v>
       </c>
       <c r="H27">
-        <v>0.9994006193302135</v>
+        <v>1.010496688291482</v>
       </c>
       <c r="I27">
-        <v>0.9994029298871423</v>
+        <v>1.010945655415993</v>
       </c>
       <c r="J27">
-        <v>1.002394227615142</v>
+        <v>0.9573718856791662</v>
       </c>
       <c r="K27">
-        <v>0.9994029298871423</v>
+        <v>1.010945655415993</v>
       </c>
       <c r="L27">
-        <v>0.9994006193302135</v>
+        <v>1.010496688291482</v>
       </c>
       <c r="M27">
-        <v>1.000897423472678</v>
+        <v>0.9839342869853241</v>
       </c>
       <c r="N27">
-        <v>1.000897423472678</v>
+        <v>0.9839342869853241</v>
       </c>
       <c r="O27">
-        <v>1.00103740551893</v>
+        <v>0.981509003169038</v>
       </c>
       <c r="P27">
-        <v>1.000399258944166</v>
+        <v>0.9929380764622139</v>
       </c>
       <c r="Q27">
-        <v>1.000399258944166</v>
+        <v>0.9929380764622139</v>
       </c>
       <c r="R27">
-        <v>1.00015017667991</v>
+        <v>0.9974399712006587</v>
       </c>
       <c r="S27">
-        <v>1.00015017667991</v>
+        <v>0.9974399712006587</v>
       </c>
       <c r="T27">
-        <v>1.00005294238453</v>
+        <v>0.9990009805948762</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.004700680088086</v>
+        <v>1.007646391379899</v>
       </c>
       <c r="D28">
-        <v>0.9961196812177329</v>
+        <v>0.993822800863833</v>
       </c>
       <c r="E28">
-        <v>1.001766162569976</v>
+        <v>1.002669980077599</v>
       </c>
       <c r="F28">
-        <v>1.001763917544901</v>
+        <v>1.002800518215534</v>
       </c>
       <c r="G28">
-        <v>0.9929435378415681</v>
+        <v>0.9888462677653966</v>
       </c>
       <c r="H28">
-        <v>1.00176297257391</v>
+        <v>1.002854242666416</v>
       </c>
       <c r="I28">
-        <v>1.001766162569976</v>
+        <v>1.002669980077599</v>
       </c>
       <c r="J28">
-        <v>0.9929435378415681</v>
+        <v>0.9888462677653966</v>
       </c>
       <c r="K28">
-        <v>1.001766162569976</v>
+        <v>1.002669980077599</v>
       </c>
       <c r="L28">
-        <v>1.00176297257391</v>
+        <v>1.002854242666416</v>
       </c>
       <c r="M28">
-        <v>0.9973532552077389</v>
+        <v>0.9958502552159064</v>
       </c>
       <c r="N28">
-        <v>0.9973532552077389</v>
+        <v>0.9958502552159064</v>
       </c>
       <c r="O28">
-        <v>0.996942063877737</v>
+        <v>0.9951744370985486</v>
       </c>
       <c r="P28">
-        <v>0.9988242243284846</v>
+        <v>0.9981234968364707</v>
       </c>
       <c r="Q28">
-        <v>0.9988242243284846</v>
+        <v>0.9981234968364707</v>
       </c>
       <c r="R28">
-        <v>0.9995597088888575</v>
+        <v>0.9992601176467528</v>
       </c>
       <c r="S28">
-        <v>0.9995597088888575</v>
+        <v>0.9992601176467528</v>
       </c>
       <c r="T28">
-        <v>0.999842825306029</v>
+        <v>0.999773366828113</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9984012076914174</v>
+      </c>
+      <c r="D29">
+        <v>1.001317369611433</v>
+      </c>
+      <c r="E29">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="F29">
+        <v>0.9994013001718339</v>
+      </c>
+      <c r="G29">
+        <v>1.002394227615142</v>
+      </c>
+      <c r="H29">
+        <v>0.9994006193302135</v>
+      </c>
+      <c r="I29">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="J29">
+        <v>1.002394227615142</v>
+      </c>
+      <c r="K29">
+        <v>0.9994029298871423</v>
+      </c>
+      <c r="L29">
+        <v>0.9994006193302135</v>
+      </c>
+      <c r="M29">
+        <v>1.000897423472678</v>
+      </c>
+      <c r="N29">
+        <v>1.000897423472678</v>
+      </c>
+      <c r="O29">
+        <v>1.00103740551893</v>
+      </c>
+      <c r="P29">
+        <v>1.000399258944166</v>
+      </c>
+      <c r="Q29">
+        <v>1.000399258944166</v>
+      </c>
+      <c r="R29">
+        <v>1.00015017667991</v>
+      </c>
+      <c r="S29">
+        <v>1.00015017667991</v>
+      </c>
+      <c r="T29">
+        <v>1.00005294238453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004700680088086</v>
+      </c>
+      <c r="D30">
+        <v>0.9961196812177329</v>
+      </c>
+      <c r="E30">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="F30">
+        <v>1.001763917544901</v>
+      </c>
+      <c r="G30">
+        <v>0.9929435378415681</v>
+      </c>
+      <c r="H30">
+        <v>1.00176297257391</v>
+      </c>
+      <c r="I30">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="J30">
+        <v>0.9929435378415681</v>
+      </c>
+      <c r="K30">
+        <v>1.001766162569976</v>
+      </c>
+      <c r="L30">
+        <v>1.00176297257391</v>
+      </c>
+      <c r="M30">
+        <v>0.9973532552077389</v>
+      </c>
+      <c r="N30">
+        <v>0.9973532552077389</v>
+      </c>
+      <c r="O30">
+        <v>0.996942063877737</v>
+      </c>
+      <c r="P30">
+        <v>0.9988242243284846</v>
+      </c>
+      <c r="Q30">
+        <v>0.9988242243284846</v>
+      </c>
+      <c r="R30">
+        <v>0.9995597088888575</v>
+      </c>
+      <c r="S30">
+        <v>0.9995597088888575</v>
+      </c>
+      <c r="T30">
+        <v>0.999842825306029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.00924929279912</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9922849020236275</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.003595663354781</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.003511582729092</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9859225968624905</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.003476949961498</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.003595663354781</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9859225968624905</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.003595663354781</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.003476949961498</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9946997734119943</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9946997734119943</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9938948162825388</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9976650700595897</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9976650700595897</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9991477183833875</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9991477183833875</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9996734979551013</v>
       </c>
     </row>
